--- a/data/2023/ssg/14,1_DE-1+DE-1a.xlsx
+++ b/data/2023/ssg/14,1_DE-1+DE-1a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="818">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3150" uniqueCount="822">
   <si>
     <t>ZDBDID</t>
   </si>
@@ -133,1095 +133,1107 @@
     <t>x</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>5;12;16;17;18;210;23;24;30;31;155;22;39;185</t>
+  </si>
+  <si>
+    <t>960646-4</t>
+  </si>
+  <si>
+    <t>rb;b</t>
+  </si>
+  <si>
+    <t>Mitteilungen</t>
+  </si>
+  <si>
+    <t>DVW Hessen</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>ger</t>
+  </si>
+  <si>
+    <t>0949-7900</t>
+  </si>
+  <si>
+    <t>550</t>
+  </si>
+  <si>
+    <t>960645-2</t>
+  </si>
+  <si>
+    <t>24.1973 - 41.1990,1; 1=41.1990,2 -</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>34/30;43;89</t>
+  </si>
+  <si>
+    <t>766339-0</t>
+  </si>
+  <si>
+    <t>XYZ</t>
+  </si>
+  <si>
+    <t>Assoc.</t>
+  </si>
+  <si>
+    <t>Paris</t>
+  </si>
+  <si>
+    <t>0290-9057</t>
+  </si>
+  <si>
+    <t>910</t>
+  </si>
+  <si>
+    <t>1.1979 -    ; auch mit durchgehender Nr.-Zählung</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>769887-2</t>
+  </si>
+  <si>
+    <t>Kart og plan</t>
+  </si>
+  <si>
+    <t>Univ.-Forl.</t>
+  </si>
+  <si>
+    <t>Oslo</t>
+  </si>
+  <si>
+    <t>nor</t>
+  </si>
+  <si>
+    <t>0047-3278</t>
+  </si>
+  <si>
+    <t>2258541-2</t>
+  </si>
+  <si>
+    <t>30=62.1970-årgang 114, 1/2 (2021)</t>
+  </si>
+  <si>
+    <t>1097165-8</t>
+  </si>
+  <si>
+    <t>Atlanten</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>København</t>
+  </si>
+  <si>
+    <t>dan</t>
+  </si>
+  <si>
+    <t>1.1904/06(1906) - 5.1918/19(1919)[?]</t>
+  </si>
+  <si>
+    <t>1107042-0</t>
+  </si>
+  <si>
+    <t>Bulletin</t>
+  </si>
+  <si>
+    <t>Paris [u.a.]</t>
+  </si>
+  <si>
+    <t>0414-0575</t>
+  </si>
+  <si>
+    <t>28,2;13;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>9.1969 -</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>417433-1</t>
+  </si>
+  <si>
+    <t>Cartography</t>
+  </si>
+  <si>
+    <t>Mapping Sciences Institute</t>
+  </si>
+  <si>
+    <t>East Perth</t>
+  </si>
+  <si>
+    <t>eng</t>
+  </si>
+  <si>
+    <t>0069-0805</t>
+  </si>
+  <si>
+    <t>2163057-4</t>
+  </si>
+  <si>
+    <t>1.1954/56 - 32.2003</t>
+  </si>
+  <si>
+    <t>417437-9</t>
+  </si>
+  <si>
+    <t>The cartographic journal</t>
+  </si>
+  <si>
+    <t>Taylor and Francis;Maney</t>
+  </si>
+  <si>
+    <t>London;Edinburgh;Leeds</t>
+  </si>
+  <si>
+    <t>0008-7041</t>
+  </si>
+  <si>
+    <t>1.1964 -</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>18;89;385;185</t>
+  </si>
+  <si>
+    <t>791641-3</t>
+  </si>
+  <si>
+    <t>Ce hui xue bao</t>
+  </si>
+  <si>
+    <t>Ce hui chu ban she</t>
+  </si>
+  <si>
+    <t>Bei jing</t>
+  </si>
+  <si>
+    <t>chi</t>
+  </si>
+  <si>
+    <t>1001-1595</t>
+  </si>
+  <si>
+    <t>FID-ASIEN-DE-1a;FID-KARTEN-DE-1a;6,25;14,1</t>
+  </si>
+  <si>
+    <t>881426-0</t>
+  </si>
+  <si>
+    <t>5.1962 - 9.1966,2[?]; 10.1981 -</t>
+  </si>
+  <si>
+    <t>89</t>
+  </si>
+  <si>
+    <t>421781-0</t>
+  </si>
+  <si>
+    <t>Polski przegla̜d kartograficzny</t>
+  </si>
+  <si>
+    <t>Państw. Przedsie̜biorstwo Wyd. Kartograficznych</t>
+  </si>
+  <si>
+    <t>Warszawa</t>
+  </si>
+  <si>
+    <t>pol;eng;rus</t>
+  </si>
+  <si>
+    <t>0324-8321</t>
+  </si>
+  <si>
+    <t>2872498-7</t>
+  </si>
+  <si>
+    <t>1.1969-tom 47 (2015)</t>
+  </si>
+  <si>
+    <t>430639-9</t>
+  </si>
+  <si>
+    <t>Geodezija, kartografija, zemeustrojstvo</t>
+  </si>
+  <si>
+    <t>Sofija</t>
+  </si>
+  <si>
+    <t>bul</t>
+  </si>
+  <si>
+    <t>0324-1610</t>
+  </si>
+  <si>
+    <t>1.1961 -</t>
+  </si>
+  <si>
+    <t>48084-8</t>
+  </si>
+  <si>
+    <t>Indian cartographer</t>
+  </si>
+  <si>
+    <t>INCA</t>
+  </si>
+  <si>
+    <t>Hyderabad</t>
+  </si>
+  <si>
+    <t>1.1980 - 20.2000; 22.2002 -</t>
+  </si>
+  <si>
+    <t>433193-X</t>
+  </si>
+  <si>
+    <t>Bollettino della Associazione Italiana di Cartografia</t>
+  </si>
+  <si>
+    <t>Firenze</t>
+  </si>
+  <si>
+    <t>ita</t>
+  </si>
+  <si>
+    <t>0044-9733</t>
+  </si>
+  <si>
+    <t>910;550</t>
+  </si>
+  <si>
+    <t>Nr. 1.1964 - 92.1994; Anno 32.1985 - 50.2013 = Nr. 93-149; 150.2014 - 153.2015; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>438314-X</t>
+  </si>
+  <si>
+    <t>The Globe</t>
+  </si>
+  <si>
+    <t>Canberra</t>
+  </si>
+  <si>
+    <t>0311-3930</t>
+  </si>
+  <si>
+    <t>Nr. 1.1974 -</t>
+  </si>
+  <si>
+    <t>56440-0</t>
+  </si>
+  <si>
+    <t>Geocarto international</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
+  </si>
+  <si>
+    <t>1010-6049</t>
+  </si>
+  <si>
+    <t>14,1;14;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 1986 -</t>
+  </si>
+  <si>
+    <t>1132110-6</t>
+  </si>
+  <si>
+    <t>Cartographic perspectives</t>
+  </si>
+  <si>
+    <t>NACIS</t>
+  </si>
+  <si>
+    <t>Milwaukee, Wis.</t>
+  </si>
+  <si>
+    <t>1048-9053</t>
+  </si>
+  <si>
+    <t>7,26;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>Nr. 1.1989 - 82.2015</t>
+  </si>
+  <si>
+    <t>447920-8</t>
+  </si>
+  <si>
+    <t>Indian surveyor</t>
+  </si>
+  <si>
+    <t>New Delhi</t>
+  </si>
+  <si>
+    <t>0970-3470</t>
+  </si>
+  <si>
+    <t>050</t>
+  </si>
+  <si>
+    <t>1059309-3</t>
+  </si>
+  <si>
+    <t>Nachgewiesen 12.1971 - 33/34.1990/91; 1991,Juli; 40.1992 - 67.2013 = Nr. 69-112; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1148989-3</t>
+  </si>
+  <si>
+    <t>Rivista di topografia antica</t>
+  </si>
+  <si>
+    <t>Congedo</t>
+  </si>
+  <si>
+    <t>Galatina</t>
+  </si>
+  <si>
+    <t>1121-5275</t>
+  </si>
+  <si>
+    <t>930</t>
+  </si>
+  <si>
+    <t>6,14;6,12;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>1.1991(1992) -</t>
+  </si>
+  <si>
+    <t>1a</t>
+  </si>
+  <si>
+    <t>12;16;19;21;24;824;F 36</t>
+  </si>
+  <si>
+    <t>128428-9</t>
+  </si>
+  <si>
+    <t>ra;b</t>
+  </si>
+  <si>
+    <t>Bibliographia cartographica</t>
+  </si>
+  <si>
+    <t>de @Gruyter Saur</t>
+  </si>
+  <si>
+    <t>Berlin</t>
+  </si>
+  <si>
+    <t>eng;ger;fre</t>
+  </si>
+  <si>
+    <t>0340-0409</t>
+  </si>
+  <si>
+    <t>550;914.3</t>
+  </si>
+  <si>
+    <t>2463569-8</t>
+  </si>
+  <si>
+    <t>1080-7</t>
+  </si>
+  <si>
+    <t>1.1974(1975) - 31.2004(2005); 32.2005(2009) - 34.2007(2012)</t>
+  </si>
+  <si>
+    <t>880137-X</t>
+  </si>
+  <si>
+    <t>Geodezja i kartografia</t>
+  </si>
+  <si>
+    <t>Wydawn. CBK PAN</t>
+  </si>
+  <si>
+    <t>pol</t>
+  </si>
+  <si>
+    <t>0016-7134</t>
+  </si>
+  <si>
+    <t>2558225-2</t>
+  </si>
+  <si>
+    <t>1.1952 - 58.2009,1</t>
+  </si>
+  <si>
+    <t>880183-6</t>
+  </si>
+  <si>
+    <t>sm;b</t>
+  </si>
+  <si>
+    <t>Kartografičeskaja letopisʹ</t>
+  </si>
+  <si>
+    <t>Izdat. Vsesojuznoj Knižnoj Palaty</t>
+  </si>
+  <si>
+    <t>Moskva</t>
+  </si>
+  <si>
+    <t>rus</t>
+  </si>
+  <si>
+    <t>0130-2086</t>
+  </si>
+  <si>
+    <t>010;550</t>
+  </si>
+  <si>
+    <t>2852736-7</t>
+  </si>
+  <si>
+    <t>1 (1931)- 8 (1938) ; 1939-2014</t>
+  </si>
+  <si>
+    <t>881125-8</t>
+  </si>
+  <si>
+    <t>Geodézia és kartográfia</t>
+  </si>
+  <si>
+    <t>Kartográfiai Vállalat</t>
+  </si>
+  <si>
+    <t>Budapest</t>
+  </si>
+  <si>
+    <t>0016-7118</t>
+  </si>
+  <si>
+    <t>881124-6</t>
+  </si>
+  <si>
+    <t>7.1955 -</t>
+  </si>
+  <si>
+    <t>1174761-4</t>
+  </si>
+  <si>
+    <t>Geomatica</t>
+  </si>
+  <si>
+    <t>Inst.</t>
+  </si>
+  <si>
+    <t>Ottawa</t>
+  </si>
+  <si>
+    <t>1195-1036</t>
+  </si>
+  <si>
+    <t>246804-9</t>
+  </si>
+  <si>
+    <t>47.1993 -</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>89;897</t>
+  </si>
+  <si>
+    <t>1175075-3</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Studia i materiały z historii kartografii</t>
+  </si>
+  <si>
+    <t>0860-214X</t>
+  </si>
+  <si>
+    <t>1.1982 -</t>
+  </si>
+  <si>
+    <t>160617-7</t>
+  </si>
+  <si>
+    <t>Geodezija i kartografija</t>
+  </si>
+  <si>
+    <t>0016-7126</t>
+  </si>
+  <si>
+    <t>1956 -</t>
+  </si>
+  <si>
+    <t>917178-2</t>
+  </si>
+  <si>
+    <t>Cartographica Hungarica</t>
+  </si>
+  <si>
+    <t>Szathmáry</t>
+  </si>
+  <si>
+    <t>Balatonkenese</t>
+  </si>
+  <si>
+    <t>hun</t>
+  </si>
+  <si>
+    <t>1418-270X</t>
+  </si>
+  <si>
+    <t>Nr. 1.1992 -</t>
+  </si>
+  <si>
+    <t>948149-7</t>
+  </si>
+  <si>
+    <t>Z dziejów kartografii</t>
+  </si>
+  <si>
+    <t>Wrocław</t>
+  </si>
+  <si>
+    <t>0138-0850</t>
+  </si>
+  <si>
+    <t>1.1979 -</t>
+  </si>
+  <si>
+    <t>1183427-4</t>
+  </si>
+  <si>
+    <t>Cartouche</t>
+  </si>
+  <si>
+    <t>CCA</t>
+  </si>
+  <si>
+    <t>Calgary</t>
+  </si>
+  <si>
+    <t>1183-2045</t>
+  </si>
+  <si>
+    <t>1.1991 - 89.2014[?]</t>
+  </si>
+  <si>
+    <t>185583-9</t>
+  </si>
+  <si>
+    <t>Cartographica</t>
+  </si>
+  <si>
+    <t>Univ. of Toronto Press</t>
+  </si>
+  <si>
+    <t>Toronto, Ontario</t>
+  </si>
+  <si>
+    <t>0340-0654;0317-7173</t>
+  </si>
+  <si>
+    <t>550;910</t>
+  </si>
+  <si>
+    <t>14,1;7,26;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>417439-2</t>
+  </si>
+  <si>
+    <t>17.1980 -</t>
+  </si>
+  <si>
+    <t>18;385;185</t>
+  </si>
+  <si>
+    <t>1194611-8</t>
+  </si>
+  <si>
+    <t>ra;d</t>
+  </si>
+  <si>
+    <t>Kartographische Schriften</t>
+  </si>
+  <si>
+    <t>Kirschbaum</t>
+  </si>
+  <si>
+    <t>Bonn</t>
+  </si>
+  <si>
+    <t>1.1993 -</t>
+  </si>
+  <si>
+    <t>1206731-3</t>
+  </si>
+  <si>
+    <t>Antique map price record &amp; handbook</t>
+  </si>
+  <si>
+    <t>Kimmel Publ.</t>
+  </si>
+  <si>
+    <t>Amherst, Mass.</t>
+  </si>
+  <si>
+    <t>1070-8421</t>
+  </si>
+  <si>
+    <t>2082042-2</t>
+  </si>
+  <si>
+    <t>232258-4</t>
+  </si>
+  <si>
+    <t>11.1993 - 16.1999/2000(2000)</t>
+  </si>
+  <si>
+    <t>1222264-1</t>
+  </si>
+  <si>
+    <t>Kartografické listy</t>
+  </si>
+  <si>
+    <t>Bratislava</t>
+  </si>
+  <si>
+    <t>slo</t>
+  </si>
+  <si>
+    <t>1336-5274</t>
+  </si>
+  <si>
+    <t>230277-9</t>
+  </si>
+  <si>
+    <t>Caert-thresoor</t>
+  </si>
+  <si>
+    <t>Alphen aan den Rijn</t>
+  </si>
+  <si>
+    <t>0167-4994</t>
+  </si>
+  <si>
+    <t>18;210;703;185</t>
+  </si>
+  <si>
+    <t>233055-6</t>
+  </si>
+  <si>
+    <t>Topografía y cartografía</t>
+  </si>
+  <si>
+    <t>Colegio</t>
+  </si>
+  <si>
+    <t>Madrid</t>
+  </si>
+  <si>
+    <t>0212-9280</t>
+  </si>
+  <si>
+    <t>883459-3</t>
+  </si>
+  <si>
+    <t>1.1984/85 - 3.1987 = Nr. 1-23; 5.1988 - 29.2013 = Nr. 24-166[?]</t>
+  </si>
+  <si>
+    <t>1019315-7</t>
+  </si>
+  <si>
+    <t>Cartographica Helvetica</t>
+  </si>
+  <si>
+    <t>Verl. Cartographica Helvetica</t>
+  </si>
+  <si>
+    <t>Murten</t>
+  </si>
+  <si>
+    <t>1015-8480</t>
+  </si>
+  <si>
+    <t>Nr. 1.1990-Nr. 63 (2021) ; damit Erscheinen eingestellt</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>240180-0</t>
+  </si>
+  <si>
+    <t>Allgemeine Vermessungs-Nachrichten</t>
+  </si>
+  <si>
+    <t>Wichmann, VDE Verl.</t>
+  </si>
+  <si>
+    <t>0002-5968</t>
+  </si>
+  <si>
+    <t>070;690;550;910</t>
+  </si>
+  <si>
+    <t>19,1;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>241270-6;1112491-X;166207-7</t>
+  </si>
+  <si>
+    <t>1.1889/90; 2.1890 - 55.1943,7/8; [57.]1950 - [68.]1961; 69.1962 -</t>
+  </si>
+  <si>
+    <t>35</t>
+  </si>
+  <si>
+    <t>3/4;7;17/2;M 347;210;24;28;31;45;46;83;89;90;104;105;898;386;468;551;Wim 2;897;519;634;949;Bm 40;A 96;743;520;60;L 189;1373;Kob 2;1053/2;960/1;H 2</t>
+  </si>
+  <si>
+    <t>259875-9</t>
+  </si>
+  <si>
+    <t>Ce hui tong bao</t>
+  </si>
+  <si>
+    <t>Zhong guo di tu zhu ban she;Ce hui chu ban she</t>
+  </si>
+  <si>
+    <t>1000-6540;0494-0911</t>
+  </si>
+  <si>
+    <t>1.1955 - 5.1959; 6.1962 - 10.1966,Juli; 1975 - 1997; Nr. 250.1998 -</t>
+  </si>
+  <si>
+    <t>1050273-7</t>
+  </si>
+  <si>
+    <t>The bulletin of the Society of Cartographers</t>
+  </si>
+  <si>
+    <t>Soc.</t>
+  </si>
+  <si>
+    <t>Enfield</t>
+  </si>
+  <si>
+    <t>0036-1984</t>
+  </si>
+  <si>
+    <t>441347-7</t>
+  </si>
+  <si>
+    <t>24.1990 - volume 53.2019,1/2; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>708006-2</t>
+  </si>
+  <si>
+    <t>Chizu no tomo</t>
+  </si>
+  <si>
+    <t>Chizu Kyōkai</t>
+  </si>
+  <si>
+    <t>Tōkyō</t>
+  </si>
+  <si>
+    <t>0009-4900</t>
+  </si>
+  <si>
+    <t>Nr. 5.1959 - 92.1967; Vol. 10.1968 - 45.2003 = Nr. 1-510; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>731984-8</t>
+  </si>
+  <si>
+    <t>Revista brasileira de cartografia</t>
+  </si>
+  <si>
+    <t>Rio de Janeiro</t>
+  </si>
+  <si>
+    <t>0560-4613</t>
+  </si>
+  <si>
+    <t>1.1970 - 7.1978 = Nr. 1-20; Nr. 21.1978 -</t>
+  </si>
+  <si>
+    <t>1312191-1</t>
+  </si>
+  <si>
+    <t>Geodezija ir kartografija</t>
+  </si>
+  <si>
+    <t>Technika</t>
+  </si>
+  <si>
+    <t>Vilnius</t>
+  </si>
+  <si>
+    <t>lit;eng</t>
+  </si>
+  <si>
+    <t>1392-1541</t>
+  </si>
+  <si>
+    <t>2737639-4</t>
+  </si>
+  <si>
+    <t>1196993-3</t>
+  </si>
+  <si>
+    <t>Nr. 21.1995 - 26.1997; Vol. 24.1998 - 36.2010</t>
+  </si>
+  <si>
+    <t>2393588-1</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>Journal of location based services</t>
+  </si>
+  <si>
+    <t>Taylor and Francis</t>
+  </si>
+  <si>
+    <t>London [u.a.]</t>
+  </si>
+  <si>
+    <t>1748-9733</t>
+  </si>
+  <si>
+    <t>070;620</t>
+  </si>
+  <si>
+    <t>2403035-1</t>
+  </si>
+  <si>
+    <t>1.2007 -</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2393588;https://www.tandfonline.com/loi/tlbs20</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
-    <t>5;12;16;17;18;210;24;30;31;155;22;39;185</t>
-  </si>
-  <si>
-    <t>960646-4</t>
-  </si>
-  <si>
-    <t>rb;b</t>
-  </si>
-  <si>
-    <t>Mitteilungen</t>
-  </si>
-  <si>
-    <t>DVW Hessen</t>
-  </si>
-  <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>ger</t>
-  </si>
-  <si>
-    <t>0949-7900</t>
-  </si>
-  <si>
-    <t>550</t>
-  </si>
-  <si>
-    <t>960645-2</t>
-  </si>
-  <si>
-    <t>24.1973 - 41.1990,1; 1=41.1990,2 -</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>34/30;43</t>
-  </si>
-  <si>
-    <t>766339-0</t>
-  </si>
-  <si>
-    <t>XYZ</t>
-  </si>
-  <si>
-    <t>Assoc.</t>
-  </si>
-  <si>
-    <t>Paris</t>
-  </si>
-  <si>
-    <t>0290-9057</t>
-  </si>
-  <si>
-    <t>910</t>
-  </si>
-  <si>
-    <t>1.1979 -    ; auch mit durchgehender Nr.-Zählung</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>769887-2</t>
-  </si>
-  <si>
-    <t>Kart og plan</t>
-  </si>
-  <si>
-    <t>Univ.-Forl.</t>
-  </si>
-  <si>
-    <t>Oslo</t>
-  </si>
-  <si>
-    <t>nor</t>
-  </si>
-  <si>
-    <t>0047-3278</t>
-  </si>
-  <si>
-    <t>2258541-2</t>
-  </si>
-  <si>
-    <t>30=62.1970-årgang 114, 1/2 (2021)</t>
-  </si>
-  <si>
-    <t>1097165-8</t>
-  </si>
-  <si>
-    <t>Atlanten</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>København</t>
-  </si>
-  <si>
-    <t>dan</t>
-  </si>
-  <si>
-    <t>1.1904/06(1906) - 5.1918/19(1919)[?]</t>
-  </si>
-  <si>
-    <t>1107042-0</t>
-  </si>
-  <si>
-    <t>Bulletin</t>
-  </si>
-  <si>
-    <t>Paris [u.a.]</t>
-  </si>
-  <si>
-    <t>0414-0575</t>
-  </si>
-  <si>
-    <t>28,2;13;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>9.1969 -</t>
-  </si>
-  <si>
-    <t>417433-1</t>
-  </si>
-  <si>
-    <t>Cartography</t>
-  </si>
-  <si>
-    <t>Mapping Sciences Institute</t>
-  </si>
-  <si>
-    <t>East Perth</t>
-  </si>
-  <si>
-    <t>eng</t>
-  </si>
-  <si>
-    <t>0069-0805</t>
-  </si>
-  <si>
-    <t>2163057-4</t>
-  </si>
-  <si>
-    <t>1.1954/56 - 32.2003</t>
-  </si>
-  <si>
-    <t>417437-9</t>
-  </si>
-  <si>
-    <t>The cartographic journal</t>
-  </si>
-  <si>
-    <t>Taylor and Francis;Maney</t>
-  </si>
-  <si>
-    <t>London;Edinburgh;Leeds</t>
-  </si>
-  <si>
-    <t>0008-7041</t>
-  </si>
-  <si>
-    <t>1.1964 -</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>18;385;185</t>
-  </si>
-  <si>
-    <t>791641-3</t>
-  </si>
-  <si>
-    <t>Ce hui xue bao</t>
-  </si>
-  <si>
-    <t>Ce hui chu ban she</t>
-  </si>
-  <si>
-    <t>Bei jing</t>
-  </si>
-  <si>
-    <t>chi</t>
-  </si>
-  <si>
-    <t>1001-1595</t>
-  </si>
-  <si>
-    <t>FID-ASIEN-DE-1a;FID-KARTEN-DE-1a;6,25;14,1</t>
-  </si>
-  <si>
-    <t>881426-0</t>
-  </si>
-  <si>
-    <t>5.1962 - 9.1966,2[?]; 10.1981 -</t>
-  </si>
-  <si>
-    <t>421781-0</t>
-  </si>
-  <si>
-    <t>Polski przegla̜d kartograficzny</t>
-  </si>
-  <si>
-    <t>Państw. Przedsie̜biorstwo Wyd. Kartograficznych</t>
-  </si>
-  <si>
-    <t>Warszawa</t>
-  </si>
-  <si>
-    <t>pol;eng;rus</t>
-  </si>
-  <si>
-    <t>0324-8321</t>
-  </si>
-  <si>
-    <t>2872498-7</t>
-  </si>
-  <si>
-    <t>1.1969-tom 47 (2015)</t>
-  </si>
-  <si>
-    <t>430639-9</t>
-  </si>
-  <si>
-    <t>Geodezija, kartografija, zemeustrojstvo</t>
-  </si>
-  <si>
-    <t>Sofija</t>
-  </si>
-  <si>
-    <t>bul</t>
-  </si>
-  <si>
-    <t>0324-1610</t>
-  </si>
-  <si>
-    <t>1.1961 -</t>
-  </si>
-  <si>
-    <t>89</t>
-  </si>
-  <si>
-    <t>48084-8</t>
-  </si>
-  <si>
-    <t>Indian cartographer</t>
-  </si>
-  <si>
-    <t>INCA</t>
-  </si>
-  <si>
-    <t>Hyderabad</t>
-  </si>
-  <si>
-    <t>1.1980 - 20.2000; 22.2002 -</t>
-  </si>
-  <si>
-    <t>433193-X</t>
-  </si>
-  <si>
-    <t>Bollettino della Associazione Italiana di Cartografia</t>
-  </si>
-  <si>
-    <t>Firenze</t>
-  </si>
-  <si>
-    <t>ita</t>
-  </si>
-  <si>
-    <t>0044-9733</t>
-  </si>
-  <si>
-    <t>910;550</t>
-  </si>
-  <si>
-    <t>Nr. 1.1964 - 92.1994; Anno 32.1985 - 50.2013 = Nr. 93-149; 150.2014 - 153.2015; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>438314-X</t>
-  </si>
-  <si>
-    <t>The Globe</t>
-  </si>
-  <si>
-    <t>Canberra</t>
-  </si>
-  <si>
-    <t>0311-3930</t>
-  </si>
-  <si>
-    <t>Nr. 1.1974 -</t>
-  </si>
-  <si>
-    <t>56440-0</t>
-  </si>
-  <si>
-    <t>Geocarto international</t>
-  </si>
-  <si>
-    <t>Hong Kong</t>
-  </si>
-  <si>
-    <t>1010-6049</t>
-  </si>
-  <si>
-    <t>14,1;14;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 1986 -</t>
-  </si>
-  <si>
-    <t>1132110-6</t>
-  </si>
-  <si>
-    <t>Cartographic perspectives</t>
-  </si>
-  <si>
-    <t>NACIS</t>
-  </si>
-  <si>
-    <t>Milwaukee, Wis.</t>
-  </si>
-  <si>
-    <t>1048-9053</t>
-  </si>
-  <si>
-    <t>7,26;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>Nr. 1.1989 - 82.2015</t>
-  </si>
-  <si>
-    <t>447920-8</t>
-  </si>
-  <si>
-    <t>Indian surveyor</t>
-  </si>
-  <si>
-    <t>New Delhi</t>
-  </si>
-  <si>
-    <t>0970-3470</t>
-  </si>
-  <si>
-    <t>050</t>
-  </si>
-  <si>
-    <t>1059309-3</t>
-  </si>
-  <si>
-    <t>Nachgewiesen 12.1971 - 33/34.1990/91; 1991,Juli; 40.1992 - 67.2013 = Nr. 69-112; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1148989-3</t>
-  </si>
-  <si>
-    <t>Rivista di topografia antica</t>
-  </si>
-  <si>
-    <t>Congedo</t>
-  </si>
-  <si>
-    <t>Galatina</t>
-  </si>
-  <si>
-    <t>1121-5275</t>
-  </si>
-  <si>
-    <t>930</t>
-  </si>
-  <si>
-    <t>6,14;6,12;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>1.1991(1992) -</t>
-  </si>
-  <si>
-    <t>1a</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>12;16;19;21;24;824;F 36</t>
-  </si>
-  <si>
-    <t>128428-9</t>
-  </si>
-  <si>
-    <t>ra;b</t>
-  </si>
-  <si>
-    <t>Bibliographia cartographica</t>
-  </si>
-  <si>
-    <t>de @Gruyter Saur</t>
-  </si>
-  <si>
-    <t>Berlin</t>
-  </si>
-  <si>
-    <t>eng;ger;fre</t>
-  </si>
-  <si>
-    <t>0340-0409</t>
-  </si>
-  <si>
-    <t>550;914.3</t>
-  </si>
-  <si>
-    <t>2463569-8</t>
-  </si>
-  <si>
-    <t>1080-7</t>
-  </si>
-  <si>
-    <t>1.1974(1975) - 31.2004(2005); 32.2005(2009) - 34.2007(2012)</t>
-  </si>
-  <si>
-    <t>880137-X</t>
-  </si>
-  <si>
-    <t>Geodezja i kartografia</t>
-  </si>
-  <si>
-    <t>Wydawn. CBK PAN</t>
-  </si>
-  <si>
-    <t>pol</t>
-  </si>
-  <si>
-    <t>0016-7134</t>
-  </si>
-  <si>
-    <t>2558225-2</t>
-  </si>
-  <si>
-    <t>1.1952 - 58.2009,1</t>
-  </si>
-  <si>
-    <t>880183-6</t>
-  </si>
-  <si>
-    <t>sm;b</t>
-  </si>
-  <si>
-    <t>Kartografičeskaja letopisʹ</t>
-  </si>
-  <si>
-    <t>Izdat. Vsesojuznoj Knižnoj Palaty</t>
-  </si>
-  <si>
-    <t>Moskva</t>
-  </si>
-  <si>
-    <t>rus</t>
-  </si>
-  <si>
-    <t>0130-2086</t>
-  </si>
-  <si>
-    <t>010;550</t>
-  </si>
-  <si>
-    <t>2852736-7</t>
-  </si>
-  <si>
-    <t>1 (1931)- 8 (1938) ; 1939-2014</t>
-  </si>
-  <si>
-    <t>881125-8</t>
-  </si>
-  <si>
-    <t>Geodézia és kartográfia</t>
-  </si>
-  <si>
-    <t>Kartográfiai Vállalat</t>
-  </si>
-  <si>
-    <t>Budapest</t>
-  </si>
-  <si>
-    <t>0016-7118</t>
-  </si>
-  <si>
-    <t>881124-6</t>
-  </si>
-  <si>
-    <t>7.1955 -</t>
-  </si>
-  <si>
-    <t>1174761-4</t>
-  </si>
-  <si>
-    <t>Geomatica</t>
-  </si>
-  <si>
-    <t>Inst.</t>
-  </si>
-  <si>
-    <t>Ottawa</t>
-  </si>
-  <si>
-    <t>1195-1036</t>
-  </si>
-  <si>
-    <t>246804-9</t>
-  </si>
-  <si>
-    <t>47.1993 -</t>
-  </si>
-  <si>
-    <t>897</t>
-  </si>
-  <si>
-    <t>1175075-3</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>Studia i materiały z historii kartografii</t>
-  </si>
-  <si>
-    <t>0860-214X</t>
-  </si>
-  <si>
-    <t>1.1982 -</t>
-  </si>
-  <si>
-    <t>160617-7</t>
-  </si>
-  <si>
-    <t>Geodezija i kartografija</t>
-  </si>
-  <si>
-    <t>0016-7126</t>
-  </si>
-  <si>
-    <t>1956 -</t>
-  </si>
-  <si>
-    <t>917178-2</t>
-  </si>
-  <si>
-    <t>Cartographica Hungarica</t>
-  </si>
-  <si>
-    <t>Szathmáry</t>
-  </si>
-  <si>
-    <t>Balatonkenese</t>
-  </si>
-  <si>
-    <t>hun</t>
-  </si>
-  <si>
-    <t>1418-270X</t>
-  </si>
-  <si>
-    <t>Nr. 1.1992 -</t>
-  </si>
-  <si>
-    <t>948149-7</t>
-  </si>
-  <si>
-    <t>Z dziejów kartografii</t>
-  </si>
-  <si>
-    <t>Wrocław</t>
-  </si>
-  <si>
-    <t>0138-0850</t>
-  </si>
-  <si>
-    <t>1.1979 -</t>
-  </si>
-  <si>
-    <t>1183427-4</t>
-  </si>
-  <si>
-    <t>Cartouche</t>
-  </si>
-  <si>
-    <t>CCA</t>
-  </si>
-  <si>
-    <t>Calgary</t>
-  </si>
-  <si>
-    <t>1183-2045</t>
-  </si>
-  <si>
-    <t>1.1991 - 89.2014[?]</t>
-  </si>
-  <si>
-    <t>185583-9</t>
-  </si>
-  <si>
-    <t>Cartographica</t>
-  </si>
-  <si>
-    <t>Univ. of Toronto Press</t>
-  </si>
-  <si>
-    <t>Toronto, Ontario</t>
-  </si>
-  <si>
-    <t>0340-0654;0317-7173</t>
-  </si>
-  <si>
-    <t>550;910</t>
-  </si>
-  <si>
-    <t>14,1;7,26;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>417439-2</t>
-  </si>
-  <si>
-    <t>17.1980 -</t>
-  </si>
-  <si>
-    <t>1194611-8</t>
-  </si>
-  <si>
-    <t>ra;d</t>
-  </si>
-  <si>
-    <t>Kartographische Schriften</t>
-  </si>
-  <si>
-    <t>Kirschbaum</t>
-  </si>
-  <si>
-    <t>Bonn</t>
-  </si>
-  <si>
-    <t>1.1993 -</t>
-  </si>
-  <si>
-    <t>1206731-3</t>
-  </si>
-  <si>
-    <t>Antique map price record &amp; handbook</t>
-  </si>
-  <si>
-    <t>Kimmel Publ.</t>
-  </si>
-  <si>
-    <t>Amherst, Mass.</t>
-  </si>
-  <si>
-    <t>1070-8421</t>
-  </si>
-  <si>
-    <t>2082042-2</t>
-  </si>
-  <si>
-    <t>232258-4</t>
-  </si>
-  <si>
-    <t>11.1993 - 16.1999/2000(2000)</t>
-  </si>
-  <si>
-    <t>1222264-1</t>
-  </si>
-  <si>
-    <t>Kartografické listy</t>
-  </si>
-  <si>
-    <t>Bratislava</t>
-  </si>
-  <si>
-    <t>slo</t>
-  </si>
-  <si>
-    <t>1336-5274</t>
-  </si>
-  <si>
-    <t>230277-9</t>
-  </si>
-  <si>
-    <t>Caert-thresoor</t>
-  </si>
-  <si>
-    <t>Alphen aan den Rijn</t>
-  </si>
-  <si>
-    <t>0167-4994</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>18;210;703;185</t>
-  </si>
-  <si>
-    <t>233055-6</t>
-  </si>
-  <si>
-    <t>Topografía y cartografía</t>
-  </si>
-  <si>
-    <t>Colegio</t>
-  </si>
-  <si>
-    <t>Madrid</t>
-  </si>
-  <si>
-    <t>0212-9280</t>
-  </si>
-  <si>
-    <t>883459-3</t>
-  </si>
-  <si>
-    <t>1.1984/85 - 3.1987 = Nr. 1-23; 5.1988 - 29.2013 = Nr. 24-166[?]</t>
-  </si>
-  <si>
-    <t>1019315-7</t>
-  </si>
-  <si>
-    <t>Cartographica Helvetica</t>
-  </si>
-  <si>
-    <t>Verl. Cartographica Helvetica</t>
-  </si>
-  <si>
-    <t>Murten</t>
-  </si>
-  <si>
-    <t>1015-8480</t>
-  </si>
-  <si>
-    <t>Nr. 1.1990-Nr. 63 (2021) ; damit Erscheinen eingestellt</t>
-  </si>
-  <si>
-    <t>240180-0</t>
-  </si>
-  <si>
-    <t>Allgemeine Vermessungs-Nachrichten</t>
-  </si>
-  <si>
-    <t>Wichmann, VDE Verl.</t>
-  </si>
-  <si>
-    <t>0002-5968</t>
-  </si>
-  <si>
-    <t>070;690;550;910</t>
-  </si>
-  <si>
-    <t>19,1;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>241270-6;1112491-X;166207-7</t>
-  </si>
-  <si>
-    <t>1.1889/90; 2.1890 - 55.1943,7/8; [57.]1950 - [68.]1961; 69.1962 -</t>
+    <t>14;18;84;89;90;93;100;352;384;517;634;Rt 2;944</t>
+  </si>
+  <si>
+    <t>London</t>
+  </si>
+  <si>
+    <t>1748-9725</t>
+  </si>
+  <si>
+    <t>1.2007 - 5.2011; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>1325017-6</t>
+  </si>
+  <si>
+    <t>The national municipal gazetteer</t>
+  </si>
+  <si>
+    <t>Target Exchange Inc.</t>
+  </si>
+  <si>
+    <t>Plattsburgh, NY</t>
+  </si>
+  <si>
+    <t>1049-0973</t>
+  </si>
+  <si>
+    <t>New York</t>
+  </si>
+  <si>
+    <t>Nachgewiesen Ed. 6.1995 - 16.2005; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2405109-3</t>
+  </si>
+  <si>
+    <t>Modern cartography</t>
+  </si>
+  <si>
+    <t>Elsevier;Pergamon Press</t>
+  </si>
+  <si>
+    <t>Amsterdam;Heidelberg;Oxford;New York</t>
+  </si>
+  <si>
+    <t>1.1991 -</t>
+  </si>
+  <si>
+    <t>https://www.sciencedirect.com/bookseries/modern-cartography-series;https://www.elsevier.com/search-results?labels=books&amp;book-series=Modern%20Cartography%20Series;http://www.bibliothek.uni-regensburg.de/ezeit/?2405109</t>
+  </si>
+  <si>
+    <t>2041759-7</t>
+  </si>
+  <si>
+    <t>The Portolan</t>
+  </si>
+  <si>
+    <t>Washington Map Society</t>
+  </si>
+  <si>
+    <t>Silver Spring, Md.</t>
+  </si>
+  <si>
+    <t>1096-1925</t>
+  </si>
+  <si>
+    <t>Nr. 1.1984 -</t>
+  </si>
+  <si>
+    <t>12;185</t>
+  </si>
+  <si>
+    <t>2047719-3</t>
+  </si>
+  <si>
+    <t>SpatialNews</t>
+  </si>
+  <si>
+    <t>Niceville, Fla</t>
+  </si>
+  <si>
+    <t>1.1999 -</t>
+  </si>
+  <si>
+    <t>http://spatialnews.geocomm.com/dailynews/;http://www.bibliothek.uni-regensburg.de/ezeit/?2047719</t>
+  </si>
+  <si>
+    <t>LF</t>
+  </si>
+  <si>
+    <t>1335426-7</t>
+  </si>
+  <si>
+    <t>Guide to USGS publications</t>
+  </si>
+  <si>
+    <t>Documents Index</t>
+  </si>
+  <si>
+    <t>Manassas, Va.</t>
+  </si>
+  <si>
+    <t>233054-4</t>
+  </si>
+  <si>
+    <t>1996 - 2000; damit Ersch. eingest.</t>
+  </si>
+  <si>
+    <t>2048122-6</t>
+  </si>
+  <si>
+    <t>MapForum.Com</t>
+  </si>
+  <si>
+    <t>1.1999 - 15.2006[?]</t>
+  </si>
+  <si>
+    <t>https://mapforum.com/;http://www.bibliothek.uni-regensburg.de/ezeit/?2048122</t>
+  </si>
+  <si>
+    <t>2053165-5</t>
+  </si>
+  <si>
+    <t>520;914.3</t>
+  </si>
+  <si>
+    <t>https://www.e-periodica.ch/digbib/volumes?UID=chl-001;http://www.kartengeschichte.ch/ch/d-themen.html#63;http://www.bibliothek.uni-regensburg.de/ezeit/?2053165</t>
+  </si>
+  <si>
+    <t>LF;LF</t>
+  </si>
+  <si>
+    <t>2423076-5</t>
+  </si>
+  <si>
+    <t>ld;b</t>
+  </si>
+  <si>
+    <t>[Verlag nicht ermittelbar];[Verlag nicht ermittelbar]</t>
+  </si>
+  <si>
+    <t>København;Seyðisfirði</t>
+  </si>
+  <si>
+    <t>http://www.timarit.is/titlebrowse.jsp?t_id=300209&amp;lang=4;http://www.bibliothek.uni-regensburg.de/ezeit/?2423076</t>
+  </si>
+  <si>
+    <t>2068303-0</t>
+  </si>
+  <si>
+    <t>York University, Dept. of Geography</t>
+  </si>
+  <si>
+    <t>Toronto</t>
+  </si>
+  <si>
+    <t>1911-9925</t>
+  </si>
+  <si>
+    <t>FID-ROM-DE-5;FID-ROM-DE-18;14,1;FID-KARTEN-DE-1a</t>
+  </si>
+  <si>
+    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2068303;https://www.utpjournals.press/loi/cart;https://muse.jhu.edu/journal/615;https://utorontopress.com/us/cartographica</t>
+  </si>
+  <si>
+    <t>36</t>
+  </si>
+  <si>
+    <t>14;15;15/292;16;18;M 347;19;863;862;21;24;25;Frei 129;29;92;90;93;180;Sa 18;291;352;898;859;573;Ch 1;Gla 1;752;753;972;Lg 1;944;520;Zwi 2;L 189;751;840</t>
+  </si>
+  <si>
+    <t>2439858-5</t>
+  </si>
+  <si>
+    <t>Cehui-tongbao</t>
+  </si>
+  <si>
+    <t>Cehui Chubanshe</t>
+  </si>
+  <si>
+    <t>Beijing</t>
+  </si>
+  <si>
+    <t>0494-0911</t>
+  </si>
+  <si>
+    <t>1.1955 -</t>
+  </si>
+  <si>
+    <t>http://en.oversea.cnki.net/kns55/oldnavi/n_item.aspx?NaviID=55&amp;Flg=local&amp;BaseID=CHTB&amp;NaviLink=Surveying+and+Mapping-%2fkns55%2foldnavi%2fn_list.aspx%3fNaviID%3d55%26Flg%3dlocal%26Field%3dhx_sort%26Value%3d00040008%253F%26OrderBy%3didno%7cBulletin+of+Surveying+and+Mapping;http://www.bibliothek.uni-regensburg.de/ezeit/?2439858</t>
   </si>
   <si>
     <t>32</t>
   </si>
   <si>
-    <t>3/4;17/2;M 347;210;24;28;31;45;46;83;90;104;105;898;386;468;551;Wim 2;897;519;634;949;Bm 40;A 96;743;520;60;L 189;1373;Kob 2;1053/2;H 2</t>
-  </si>
-  <si>
-    <t>259875-9</t>
-  </si>
-  <si>
-    <t>Ce hui tong bao</t>
-  </si>
-  <si>
-    <t>Zhong guo di tu zhu ban she;Ce hui chu ban she</t>
-  </si>
-  <si>
-    <t>1000-6540;0494-0911</t>
-  </si>
-  <si>
-    <t>1.1955 - 5.1959; 6.1962 - 10.1966,Juli; 1975 - 1997; Nr. 250.1998 -</t>
-  </si>
-  <si>
-    <t>1050273-7</t>
-  </si>
-  <si>
-    <t>The bulletin of the Society of Cartographers</t>
-  </si>
-  <si>
-    <t>Soc.</t>
-  </si>
-  <si>
-    <t>Enfield</t>
-  </si>
-  <si>
-    <t>0036-1984</t>
-  </si>
-  <si>
-    <t>441347-7</t>
-  </si>
-  <si>
-    <t>24.1990 - volume 53.2019,1/2; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>708006-2</t>
-  </si>
-  <si>
-    <t>Chizu no tomo</t>
-  </si>
-  <si>
-    <t>Chizu Kyōkai</t>
-  </si>
-  <si>
-    <t>Tōkyō</t>
-  </si>
-  <si>
-    <t>0009-4900</t>
-  </si>
-  <si>
-    <t>Nr. 5.1959 - 92.1967; Vol. 10.1968 - 45.2003 = Nr. 1-510; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>731984-8</t>
-  </si>
-  <si>
-    <t>Revista brasileira de cartografia</t>
-  </si>
-  <si>
-    <t>Rio de Janeiro</t>
-  </si>
-  <si>
-    <t>0560-4613</t>
-  </si>
-  <si>
-    <t>1.1970 - 7.1978 = Nr. 1-20; Nr. 21.1978 -</t>
-  </si>
-  <si>
-    <t>1312191-1</t>
-  </si>
-  <si>
-    <t>Geodezija ir kartografija</t>
-  </si>
-  <si>
-    <t>Technika</t>
-  </si>
-  <si>
-    <t>Vilnius</t>
-  </si>
-  <si>
-    <t>lit;eng</t>
-  </si>
-  <si>
-    <t>1392-1541</t>
-  </si>
-  <si>
-    <t>2737639-4</t>
-  </si>
-  <si>
-    <t>1196993-3</t>
-  </si>
-  <si>
-    <t>Nr. 21.1995 - 26.1997; Vol. 24.1998 - 36.2010</t>
-  </si>
-  <si>
-    <t>2393588-1</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>Journal of location based services</t>
-  </si>
-  <si>
-    <t>Taylor and Francis</t>
-  </si>
-  <si>
-    <t>London [u.a.]</t>
-  </si>
-  <si>
-    <t>1748-9733</t>
-  </si>
-  <si>
-    <t>070;620</t>
-  </si>
-  <si>
-    <t>2403035-1</t>
-  </si>
-  <si>
-    <t>1.2007 -</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2393588;https://www.tandfonline.com/loi/tlbs20</t>
-  </si>
-  <si>
-    <t>14;18;84;89;90;93;100;352;384;517;634;Rt 2;944</t>
-  </si>
-  <si>
-    <t>London</t>
-  </si>
-  <si>
-    <t>1748-9725</t>
-  </si>
-  <si>
-    <t>1.2007 - 5.2011; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>1325017-6</t>
-  </si>
-  <si>
-    <t>The national municipal gazetteer</t>
-  </si>
-  <si>
-    <t>Target Exchange Inc.</t>
-  </si>
-  <si>
-    <t>Plattsburgh, NY</t>
-  </si>
-  <si>
-    <t>1049-0973</t>
-  </si>
-  <si>
-    <t>New York</t>
-  </si>
-  <si>
-    <t>Nachgewiesen Ed. 6.1995 - 16.2005; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2405109-3</t>
-  </si>
-  <si>
-    <t>Modern cartography</t>
-  </si>
-  <si>
-    <t>Elsevier;Pergamon Press</t>
-  </si>
-  <si>
-    <t>Amsterdam;Heidelberg;Oxford;New York</t>
-  </si>
-  <si>
-    <t>1.1991 -</t>
-  </si>
-  <si>
-    <t>https://www.sciencedirect.com/bookseries/modern-cartography-series;https://www.elsevier.com/search-results?labels=books&amp;book-series=Modern%20Cartography%20Series;http://www.bibliothek.uni-regensburg.de/ezeit/?2405109</t>
-  </si>
-  <si>
-    <t>2041759-7</t>
-  </si>
-  <si>
-    <t>The Portolan</t>
-  </si>
-  <si>
-    <t>Washington Map Society</t>
-  </si>
-  <si>
-    <t>Silver Spring, Md.</t>
-  </si>
-  <si>
-    <t>1096-1925</t>
-  </si>
-  <si>
-    <t>Nr. 1.1984 -</t>
-  </si>
-  <si>
-    <t>12;185</t>
-  </si>
-  <si>
-    <t>2047719-3</t>
-  </si>
-  <si>
-    <t>SpatialNews</t>
-  </si>
-  <si>
-    <t>Niceville, Fla</t>
-  </si>
-  <si>
-    <t>1.1999 -</t>
-  </si>
-  <si>
-    <t>http://spatialnews.geocomm.com/dailynews/;http://www.bibliothek.uni-regensburg.de/ezeit/?2047719</t>
-  </si>
-  <si>
-    <t>LF</t>
-  </si>
-  <si>
-    <t>1335426-7</t>
-  </si>
-  <si>
-    <t>Guide to USGS publications</t>
-  </si>
-  <si>
-    <t>Documents Index</t>
-  </si>
-  <si>
-    <t>Manassas, Va.</t>
-  </si>
-  <si>
-    <t>233054-4</t>
-  </si>
-  <si>
-    <t>1996 - 2000; damit Ersch. eingest.</t>
-  </si>
-  <si>
-    <t>2048122-6</t>
-  </si>
-  <si>
-    <t>MapForum.Com</t>
-  </si>
-  <si>
-    <t>1.1999 - 15.2006[?]</t>
-  </si>
-  <si>
-    <t>https://mapforum.com/;http://www.bibliothek.uni-regensburg.de/ezeit/?2048122</t>
-  </si>
-  <si>
-    <t>2053165-5</t>
-  </si>
-  <si>
-    <t>520;914.3</t>
-  </si>
-  <si>
-    <t>https://www.e-periodica.ch/digbib/volumes?UID=chl-001;http://www.kartengeschichte.ch/ch/d-themen.html#63;http://www.bibliothek.uni-regensburg.de/ezeit/?2053165</t>
-  </si>
-  <si>
-    <t>LF;LF</t>
-  </si>
-  <si>
-    <t>2423076-5</t>
-  </si>
-  <si>
-    <t>ld;b</t>
-  </si>
-  <si>
-    <t>[Verlag nicht ermittelbar];[Verlag nicht ermittelbar]</t>
-  </si>
-  <si>
-    <t>København;Seyðisfirði</t>
-  </si>
-  <si>
-    <t>http://www.timarit.is/titlebrowse.jsp?t_id=300209&amp;lang=4;http://www.bibliothek.uni-regensburg.de/ezeit/?2423076</t>
-  </si>
-  <si>
-    <t>2068303-0</t>
-  </si>
-  <si>
-    <t>York University, Dept. of Geography</t>
-  </si>
-  <si>
-    <t>Toronto</t>
-  </si>
-  <si>
-    <t>1911-9925</t>
-  </si>
-  <si>
-    <t>FID-ROM-DE-5;FID-ROM-DE-18;14,1;FID-KARTEN-DE-1a</t>
-  </si>
-  <si>
-    <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2068303;https://www.utpjournals.press/loi/cart;https://muse.jhu.edu/journal/615;https://utorontopress.com/us/cartographica</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>14;15;15/292;16;18;M 347;19;863;862;21;24;25;Frei 129;29;92;90;93;180;Sa 18;291;352;898;859;573;Ch 1;Gla 1;752;753;972;Lg 1;944;520;Zwi 2;L 189;751;840</t>
-  </si>
-  <si>
-    <t>2439858-5</t>
-  </si>
-  <si>
-    <t>Cehui-tongbao</t>
-  </si>
-  <si>
-    <t>Cehui Chubanshe</t>
-  </si>
-  <si>
-    <t>Beijing</t>
-  </si>
-  <si>
-    <t>0494-0911</t>
-  </si>
-  <si>
-    <t>1.1955 -</t>
-  </si>
-  <si>
-    <t>http://en.oversea.cnki.net/kns55/oldnavi/n_item.aspx?NaviID=55&amp;Flg=local&amp;BaseID=CHTB&amp;NaviLink=Surveying+and+Mapping-%2fkns55%2foldnavi%2fn_list.aspx%3fNaviID%3d55%26Flg%3dlocal%26Field%3dhx_sort%26Value%3d00040008%253F%26OrderBy%3didno%7cBulletin+of+Surveying+and+Mapping;http://www.bibliothek.uni-regensburg.de/ezeit/?2439858</t>
-  </si>
-  <si>
     <t>12;M 347;210;19;20;862;863;26;29;92;1102;946;90;1028;91;861;355;898;155;384;Aug 4;37;473;703;858;739;824;573;150;634;706;523</t>
   </si>
   <si>
@@ -1822,10 +1834,10 @@
     <t>http://www.bibliothek.uni-regensburg.de/ezeit/?2131358;https://www.tandfonline.com/loi/rimu20;https://www.ingentaconnect.com/content/routledg/rimu;http://www.maphistory.info/imago.html;https://www.jstor.org/journal/imagomundi</t>
   </si>
   <si>
-    <t>69</t>
-  </si>
-  <si>
-    <t>4;7;9;12;14;15;15/292;16;18;M 347;M 352;210;19;20;863;862;21;23;24;25;Frei 129;26;27;28;29;31;43;66;84;89;90;91;93;100;180;Mh 39;291;Sa 18;352;898;384;859;473;70;517;547;703;705;824;D 142;Hil 2;Lün 4;Ch 1;Gla 1;Wim 2;Bre 14;Lg 1;634;Rt 2;944;520;Zwi 2;706;L 189;F 197;523;751;Re 13;840</t>
+    <t>70</t>
+  </si>
+  <si>
+    <t>4;7;9;12;14;15;15/292;16;18;M 347;M 352;210;19;20;863;862;21;23;24;25;Frei 129;26;27;28;29;31;43;Bv 3;66;84;89;90;91;93;100;180;Mh 39;291;Sa 18;352;898;384;859;473;70;517;547;703;705;824;D 142;Hil 2;Lün 4;Ch 1;Gla 1;Wim 2;Bre 14;Lg 1;634;Rt 2;944;520;Zwi 2;706;L 189;F 197;523;751;Re 13;840</t>
   </si>
   <si>
     <t>2211469-5</t>
@@ -2206,6 +2218,9 @@
     <t>1031548-2</t>
   </si>
   <si>
+    <t>8;18</t>
+  </si>
+  <si>
     <t>2558477-7</t>
   </si>
   <si>
@@ -2399,9 +2414,6 @@
   </si>
   <si>
     <t>fre;eng</t>
-  </si>
-  <si>
-    <t>520</t>
   </si>
   <si>
     <t>1999 [?]-</t>
@@ -3338,15 +3350,15 @@
         <v>32</v>
       </c>
       <c r="X7" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:25">
       <c r="A8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -3355,22 +3367,22 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="E8" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H8" t="s">
         <v>32</v>
       </c>
       <c r="I8" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="J8" t="s">
         <v>48</v>
@@ -3391,13 +3403,13 @@
         <v>32</v>
       </c>
       <c r="P8" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q8" t="s">
         <v>32</v>
       </c>
       <c r="R8" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="S8" t="s">
         <v>32</v>
@@ -3423,7 +3435,7 @@
     </row>
     <row r="9" spans="1:25">
       <c r="A9" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -3432,13 +3444,13 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E9" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G9" t="s">
         <v>32</v>
@@ -3447,7 +3459,7 @@
         <v>32</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="J9" t="s">
         <v>48</v>
@@ -3474,7 +3486,7 @@
         <v>32</v>
       </c>
       <c r="R9" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S9" t="s">
         <v>32</v>
@@ -3492,15 +3504,15 @@
         <v>32</v>
       </c>
       <c r="X9" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Y9" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:25">
       <c r="A10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B10" t="s">
         <v>26</v>
@@ -3509,28 +3521,28 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H10" t="s">
         <v>32</v>
       </c>
       <c r="I10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J10" t="s">
         <v>48</v>
       </c>
       <c r="K10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
         <v>32</v>
@@ -3548,10 +3560,10 @@
         <v>32</v>
       </c>
       <c r="Q10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="R10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="S10" t="s">
         <v>32</v>
@@ -3569,15 +3581,15 @@
         <v>32</v>
       </c>
       <c r="X10" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y10" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:25">
       <c r="A11" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -3586,22 +3598,22 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="E11" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="F11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G11" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="H11" t="s">
         <v>32</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
         <v>48</v>
@@ -3622,13 +3634,13 @@
         <v>32</v>
       </c>
       <c r="P11" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q11" t="s">
         <v>32</v>
       </c>
       <c r="R11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="S11" t="s">
         <v>32</v>
@@ -3654,7 +3666,7 @@
     </row>
     <row r="12" spans="1:25">
       <c r="A12" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -3663,22 +3675,22 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E12" t="s">
         <v>71</v>
       </c>
       <c r="F12" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G12" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H12" t="s">
         <v>32</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="J12" t="s">
         <v>48</v>
@@ -3705,7 +3717,7 @@
         <v>32</v>
       </c>
       <c r="R12" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="S12" t="s">
         <v>32</v>
@@ -3726,12 +3738,12 @@
         <v>37</v>
       </c>
       <c r="Y12" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:25">
       <c r="A13" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -3740,16 +3752,16 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E13" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="G13" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H13" t="s">
         <v>32</v>
@@ -3782,7 +3794,7 @@
         <v>32</v>
       </c>
       <c r="R13" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s">
         <v>32</v>
@@ -3808,7 +3820,7 @@
     </row>
     <row r="14" spans="1:25">
       <c r="A14" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -3817,25 +3829,25 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E14" t="s">
         <v>55</v>
       </c>
       <c r="F14" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G14" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H14" t="s">
         <v>32</v>
       </c>
       <c r="I14" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="J14" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K14" t="s">
         <v>35</v>
@@ -3859,7 +3871,7 @@
         <v>32</v>
       </c>
       <c r="R14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="S14" t="s">
         <v>32</v>
@@ -3885,7 +3897,7 @@
     </row>
     <row r="15" spans="1:25">
       <c r="A15" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -3894,13 +3906,13 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E15" t="s">
         <v>71</v>
       </c>
       <c r="F15" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G15" t="s">
         <v>32</v>
@@ -3909,7 +3921,7 @@
         <v>32</v>
       </c>
       <c r="I15" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="J15" t="s">
         <v>58</v>
@@ -3936,7 +3948,7 @@
         <v>32</v>
       </c>
       <c r="R15" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="S15" t="s">
         <v>32</v>
@@ -3962,7 +3974,7 @@
     </row>
     <row r="16" spans="1:25">
       <c r="A16" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -3971,28 +3983,28 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E16" t="s">
         <v>71</v>
       </c>
       <c r="F16" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G16" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H16" t="s">
         <v>32</v>
       </c>
       <c r="I16" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="J16" t="s">
         <v>48</v>
       </c>
       <c r="K16" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L16" t="s">
         <v>32</v>
@@ -4013,7 +4025,7 @@
         <v>32</v>
       </c>
       <c r="R16" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="S16" t="s">
         <v>32</v>
@@ -4039,7 +4051,7 @@
     </row>
     <row r="17" spans="1:25">
       <c r="A17" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B17" t="s">
         <v>26</v>
@@ -4048,13 +4060,13 @@
         <v>27</v>
       </c>
       <c r="D17" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F17" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="G17" t="s">
         <v>32</v>
@@ -4063,13 +4075,13 @@
         <v>32</v>
       </c>
       <c r="I17" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="J17" t="s">
         <v>48</v>
       </c>
       <c r="K17" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="L17" t="s">
         <v>32</v>
@@ -4090,7 +4102,7 @@
         <v>32</v>
       </c>
       <c r="R17" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="S17" t="s">
         <v>32</v>
@@ -4116,7 +4128,7 @@
     </row>
     <row r="18" spans="1:25">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -4125,13 +4137,13 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E18" t="s">
         <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G18" t="s">
         <v>32</v>
@@ -4140,10 +4152,10 @@
         <v>32</v>
       </c>
       <c r="I18" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="J18" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K18" t="s">
         <v>35</v>
@@ -4164,10 +4176,10 @@
         <v>32</v>
       </c>
       <c r="Q18" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="R18" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="S18" t="s">
         <v>32</v>
@@ -4193,7 +4205,7 @@
     </row>
     <row r="19" spans="1:25">
       <c r="A19" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -4202,13 +4214,13 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E19" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F19" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s">
         <v>32</v>
@@ -4217,13 +4229,13 @@
         <v>32</v>
       </c>
       <c r="I19" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="J19" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="K19" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="L19" t="s">
         <v>32</v>
@@ -4244,7 +4256,7 @@
         <v>32</v>
       </c>
       <c r="R19" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="S19" t="s">
         <v>32</v>
@@ -4253,7 +4265,7 @@
         <v>32</v>
       </c>
       <c r="U19" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V19" t="s">
         <v>38</v>
@@ -4262,7 +4274,7 @@
         <v>32</v>
       </c>
       <c r="X19" t="s">
-        <v>167</v>
+        <v>81</v>
       </c>
       <c r="Y19" t="s">
         <v>168</v>
@@ -4362,7 +4374,7 @@
         <v>182</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G21" t="s">
         <v>183</v>
@@ -4567,13 +4579,13 @@
         <v>38</v>
       </c>
       <c r="W23" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="X23" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y23" t="s">
-        <v>32</v>
+        <v>107</v>
       </c>
     </row>
     <row r="24" spans="1:25">
@@ -4596,7 +4608,7 @@
         <v>207</v>
       </c>
       <c r="G24" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H24" t="s">
         <v>32</v>
@@ -4647,30 +4659,30 @@
         <v>32</v>
       </c>
       <c r="X24" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="Y24" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
     </row>
     <row r="25" spans="1:25">
       <c r="A25" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D25" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E25" t="s">
         <v>71</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G25" t="s">
         <v>32</v>
@@ -4679,7 +4691,7 @@
         <v>32</v>
       </c>
       <c r="I25" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="J25" t="s">
         <v>48</v>
@@ -4706,7 +4718,7 @@
         <v>32</v>
       </c>
       <c r="R25" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S25" t="s">
         <v>32</v>
@@ -4732,7 +4744,7 @@
     </row>
     <row r="26" spans="1:25">
       <c r="A26" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -4741,7 +4753,7 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E26" t="s">
         <v>71</v>
@@ -4756,7 +4768,7 @@
         <v>32</v>
       </c>
       <c r="I26" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="J26" t="s">
         <v>48</v>
@@ -4783,7 +4795,7 @@
         <v>32</v>
       </c>
       <c r="R26" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S26" t="s">
         <v>32</v>
@@ -4809,7 +4821,7 @@
     </row>
     <row r="27" spans="1:25">
       <c r="A27" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -4818,22 +4830,22 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="E27" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F27" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G27" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H27" t="s">
         <v>32</v>
       </c>
       <c r="I27" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
         <v>48</v>
@@ -4860,7 +4872,7 @@
         <v>32</v>
       </c>
       <c r="R27" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="S27" t="s">
         <v>32</v>
@@ -4878,30 +4890,30 @@
         <v>32</v>
       </c>
       <c r="X27" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y27" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
     </row>
     <row r="28" spans="1:25">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
       </c>
       <c r="C28" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D28" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E28" t="s">
         <v>71</v>
       </c>
       <c r="F28" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -4910,7 +4922,7 @@
         <v>32</v>
       </c>
       <c r="I28" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="J28" t="s">
         <v>48</v>
@@ -4937,7 +4949,7 @@
         <v>32</v>
       </c>
       <c r="R28" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="S28" t="s">
         <v>32</v>
@@ -4963,7 +4975,7 @@
     </row>
     <row r="29" spans="1:25">
       <c r="A29" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -4972,13 +4984,13 @@
         <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E29" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F29" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G29" t="s">
         <v>32</v>
@@ -4987,7 +4999,7 @@
         <v>32</v>
       </c>
       <c r="I29" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="J29" t="s">
         <v>48</v>
@@ -5014,7 +5026,7 @@
         <v>32</v>
       </c>
       <c r="R29" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="S29" t="s">
         <v>32</v>
@@ -5040,7 +5052,7 @@
     </row>
     <row r="30" spans="1:25">
       <c r="A30" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -5049,28 +5061,28 @@
         <v>27</v>
       </c>
       <c r="D30" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E30" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F30" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G30" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H30" t="s">
         <v>32</v>
       </c>
       <c r="I30" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="J30" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K30" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L30" t="s">
         <v>32</v>
@@ -5088,10 +5100,10 @@
         <v>32</v>
       </c>
       <c r="Q30" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="R30" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S30" t="s">
         <v>32</v>
@@ -5109,30 +5121,30 @@
         <v>32</v>
       </c>
       <c r="X30" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="Y30" t="s">
-        <v>96</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:25">
       <c r="A31" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
       </c>
       <c r="C31" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D31" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E31" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="F31" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -5168,7 +5180,7 @@
         <v>32</v>
       </c>
       <c r="R31" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S31" t="s">
         <v>32</v>
@@ -5194,7 +5206,7 @@
     </row>
     <row r="32" spans="1:25">
       <c r="A32" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B32" t="s">
         <v>26</v>
@@ -5203,22 +5215,22 @@
         <v>27</v>
       </c>
       <c r="D32" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E32" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F32" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G32" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H32" t="s">
         <v>32</v>
       </c>
       <c r="I32" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="J32" t="s">
         <v>48</v>
@@ -5239,13 +5251,13 @@
         <v>32</v>
       </c>
       <c r="P32" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q32" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="R32" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="S32" t="s">
         <v>32</v>
@@ -5271,7 +5283,7 @@
     </row>
     <row r="33" spans="1:25">
       <c r="A33" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
@@ -5280,22 +5292,22 @@
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E33" t="s">
         <v>71</v>
       </c>
       <c r="F33" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="G33" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="H33" t="s">
         <v>32</v>
       </c>
       <c r="I33" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="J33" t="s">
         <v>48</v>
@@ -5322,7 +5334,7 @@
         <v>32</v>
       </c>
       <c r="R33" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S33" t="s">
         <v>32</v>
@@ -5348,7 +5360,7 @@
     </row>
     <row r="34" spans="1:25">
       <c r="A34" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B34" t="s">
         <v>26</v>
@@ -5357,13 +5369,13 @@
         <v>27</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E34" t="s">
         <v>71</v>
       </c>
       <c r="F34" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G34" t="s">
         <v>32</v>
@@ -5372,7 +5384,7 @@
         <v>32</v>
       </c>
       <c r="I34" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J34" t="s">
         <v>48</v>
@@ -5399,7 +5411,7 @@
         <v>32</v>
       </c>
       <c r="R34" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S34" t="s">
         <v>32</v>
@@ -5417,15 +5429,15 @@
         <v>32</v>
       </c>
       <c r="X34" t="s">
-        <v>271</v>
+        <v>96</v>
       </c>
       <c r="Y34" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="35" spans="1:25">
       <c r="A35" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B35" t="s">
         <v>26</v>
@@ -5434,13 +5446,13 @@
         <v>27</v>
       </c>
       <c r="D35" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E35" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G35" t="s">
         <v>32</v>
@@ -5449,7 +5461,7 @@
         <v>32</v>
       </c>
       <c r="I35" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="J35" t="s">
         <v>48</v>
@@ -5473,10 +5485,10 @@
         <v>32</v>
       </c>
       <c r="Q35" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="R35" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="S35" t="s">
         <v>32</v>
@@ -5502,7 +5514,7 @@
     </row>
     <row r="36" spans="1:25">
       <c r="A36" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
@@ -5511,13 +5523,13 @@
         <v>170</v>
       </c>
       <c r="D36" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E36" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F36" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -5526,13 +5538,13 @@
         <v>32</v>
       </c>
       <c r="I36" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="J36" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K36" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="L36" t="s">
         <v>32</v>
@@ -5553,7 +5565,7 @@
         <v>32</v>
       </c>
       <c r="R36" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S36" t="s">
         <v>32</v>
@@ -5571,15 +5583,15 @@
         <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="Y36" t="s">
-        <v>32</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:25">
       <c r="A37" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
@@ -5588,10 +5600,10 @@
         <v>170</v>
       </c>
       <c r="D37" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E37" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F37" t="s">
         <v>173</v>
@@ -5603,13 +5615,13 @@
         <v>32</v>
       </c>
       <c r="I37" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="J37" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K37" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="L37" t="s">
         <v>32</v>
@@ -5627,10 +5639,10 @@
         <v>32</v>
       </c>
       <c r="Q37" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="R37" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="S37" t="s">
         <v>32</v>
@@ -5648,15 +5660,15 @@
         <v>32</v>
       </c>
       <c r="X37" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="Y37" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="38" spans="1:25">
       <c r="A38" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="B38" t="s">
         <v>26</v>
@@ -5665,28 +5677,28 @@
         <v>188</v>
       </c>
       <c r="D38" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="E38" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="F38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H38" t="s">
         <v>32</v>
       </c>
       <c r="I38" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="J38" t="s">
         <v>48</v>
       </c>
       <c r="K38" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L38" t="s">
         <v>32</v>
@@ -5707,7 +5719,7 @@
         <v>32</v>
       </c>
       <c r="R38" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="S38" t="s">
         <v>32</v>
@@ -5733,7 +5745,7 @@
     </row>
     <row r="39" spans="1:25">
       <c r="A39" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
         <v>26</v>
@@ -5742,13 +5754,13 @@
         <v>27</v>
       </c>
       <c r="D39" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E39" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F39" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G39" t="s">
         <v>32</v>
@@ -5757,7 +5769,7 @@
         <v>32</v>
       </c>
       <c r="I39" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="J39" t="s">
         <v>48</v>
@@ -5781,10 +5793,10 @@
         <v>32</v>
       </c>
       <c r="Q39" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="R39" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="S39" t="s">
         <v>32</v>
@@ -5810,7 +5822,7 @@
     </row>
     <row r="40" spans="1:25">
       <c r="A40" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B40" t="s">
         <v>26</v>
@@ -5819,13 +5831,13 @@
         <v>27</v>
       </c>
       <c r="D40" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E40" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="F40" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="G40" t="s">
         <v>32</v>
@@ -5834,7 +5846,7 @@
         <v>32</v>
       </c>
       <c r="I40" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="J40" t="s">
         <v>48</v>
@@ -5861,7 +5873,7 @@
         <v>32</v>
       </c>
       <c r="R40" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="S40" t="s">
         <v>32</v>
@@ -5887,7 +5899,7 @@
     </row>
     <row r="41" spans="1:25">
       <c r="A41" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B41" t="s">
         <v>26</v>
@@ -5896,13 +5908,13 @@
         <v>27</v>
       </c>
       <c r="D41" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="E41" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F41" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G41" t="s">
         <v>32</v>
@@ -5911,7 +5923,7 @@
         <v>32</v>
       </c>
       <c r="I41" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="J41" t="s">
         <v>48</v>
@@ -5938,7 +5950,7 @@
         <v>32</v>
       </c>
       <c r="R41" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="S41" t="s">
         <v>32</v>
@@ -5964,7 +5976,7 @@
     </row>
     <row r="42" spans="1:25">
       <c r="A42" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B42" t="s">
         <v>26</v>
@@ -5973,22 +5985,22 @@
         <v>27</v>
       </c>
       <c r="D42" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E42" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F42" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G42" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H42" t="s">
         <v>32</v>
       </c>
       <c r="I42" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="J42" t="s">
         <v>48</v>
@@ -6009,13 +6021,13 @@
         <v>32</v>
       </c>
       <c r="P42" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="Q42" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="R42" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="S42" t="s">
         <v>32</v>
@@ -6041,34 +6053,34 @@
     </row>
     <row r="43" spans="1:25">
       <c r="A43" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="B43" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C43" t="s">
         <v>27</v>
       </c>
       <c r="D43" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E43" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H43" t="s">
         <v>32</v>
       </c>
       <c r="I43" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="J43" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K43" t="s">
         <v>35</v>
@@ -6089,13 +6101,13 @@
         <v>32</v>
       </c>
       <c r="Q43" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="R43" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="S43" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="T43" t="s">
         <v>32</v>
@@ -6110,15 +6122,15 @@
         <v>32</v>
       </c>
       <c r="X43" t="s">
-        <v>39</v>
+        <v>340</v>
       </c>
       <c r="Y43" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="44" spans="1:25">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B44" t="s">
         <v>26</v>
@@ -6127,25 +6139,25 @@
         <v>27</v>
       </c>
       <c r="D44" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E44" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F44" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G44" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="J44" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="K44" t="s">
         <v>35</v>
@@ -6163,13 +6175,13 @@
         <v>32</v>
       </c>
       <c r="P44" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="Q44" t="s">
         <v>32</v>
       </c>
       <c r="R44" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="S44" t="s">
         <v>32</v>
@@ -6195,7 +6207,7 @@
     </row>
     <row r="45" spans="1:25">
       <c r="A45" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
@@ -6204,13 +6216,13 @@
         <v>27</v>
       </c>
       <c r="D45" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E45" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F45" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G45" t="s">
         <v>32</v>
@@ -6219,16 +6231,16 @@
         <v>32</v>
       </c>
       <c r="I45" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="J45" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="K45" t="s">
         <v>35</v>
       </c>
       <c r="L45" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="M45" t="s">
         <v>32</v>
@@ -6246,7 +6258,7 @@
         <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="S45" t="s">
         <v>32</v>
@@ -6272,25 +6284,25 @@
     </row>
     <row r="46" spans="1:25">
       <c r="A46" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="B46" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C46" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D46" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E46" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F46" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="G46" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H46" t="s">
         <v>32</v>
@@ -6299,7 +6311,7 @@
         <v>32</v>
       </c>
       <c r="J46" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K46" t="s">
         <v>35</v>
@@ -6323,10 +6335,10 @@
         <v>32</v>
       </c>
       <c r="R46" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="S46" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="T46" t="s">
         <v>32</v>
@@ -6349,7 +6361,7 @@
     </row>
     <row r="47" spans="1:25">
       <c r="A47" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="B47" t="s">
         <v>26</v>
@@ -6358,22 +6370,22 @@
         <v>27</v>
       </c>
       <c r="D47" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="E47" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F47" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="G47" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H47" t="s">
         <v>32</v>
       </c>
       <c r="I47" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="J47" t="s">
         <v>48</v>
@@ -6400,7 +6412,7 @@
         <v>32</v>
       </c>
       <c r="R47" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="S47" t="s">
         <v>32</v>
@@ -6418,33 +6430,33 @@
         <v>32</v>
       </c>
       <c r="X47" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="Y47" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
     </row>
     <row r="48" spans="1:25">
       <c r="A48" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C48" t="s">
         <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="E48" t="s">
         <v>71</v>
       </c>
       <c r="F48" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="G48" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H48" t="s">
         <v>32</v>
@@ -6477,13 +6489,13 @@
         <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="S48" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="T48" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U48" t="s">
         <v>32</v>
@@ -6503,7 +6515,7 @@
     </row>
     <row r="49" spans="1:25">
       <c r="A49" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="B49" t="s">
         <v>26</v>
@@ -6512,13 +6524,13 @@
         <v>27</v>
       </c>
       <c r="D49" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E49" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F49" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="G49" t="s">
         <v>32</v>
@@ -6551,10 +6563,10 @@
         <v>32</v>
       </c>
       <c r="Q49" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="R49" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="S49" t="s">
         <v>32</v>
@@ -6580,25 +6592,25 @@
     </row>
     <row r="50" spans="1:25">
       <c r="A50" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="B50" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C50" t="s">
         <v>27</v>
       </c>
       <c r="D50" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="E50" t="s">
         <v>71</v>
       </c>
       <c r="F50" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G50" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H50" t="s">
         <v>32</v>
@@ -6631,13 +6643,13 @@
         <v>32</v>
       </c>
       <c r="R50" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="S50" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="T50" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U50" t="s">
         <v>32</v>
@@ -6657,22 +6669,22 @@
     </row>
     <row r="51" spans="1:25">
       <c r="A51" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="B51" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C51" t="s">
         <v>27</v>
       </c>
       <c r="D51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F51" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -6684,7 +6696,7 @@
         <v>32</v>
       </c>
       <c r="J51" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="K51" t="s">
         <v>35</v>
@@ -6708,13 +6720,13 @@
         <v>32</v>
       </c>
       <c r="R51" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="S51" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="T51" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="U51" t="s">
         <v>32</v>
@@ -6734,22 +6746,22 @@
     </row>
     <row r="52" spans="1:25">
       <c r="A52" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="B52" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C52" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="D52" t="s">
         <v>70</v>
       </c>
       <c r="E52" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F52" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
         <v>73</v>
@@ -6788,10 +6800,10 @@
         <v>74</v>
       </c>
       <c r="S52" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="T52" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U52" t="s">
         <v>32</v>
@@ -6811,37 +6823,37 @@
     </row>
     <row r="53" spans="1:25">
       <c r="A53" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="B53" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C53" t="s">
         <v>27</v>
       </c>
       <c r="D53" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="E53" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F53" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="G53" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H53" t="s">
         <v>32</v>
       </c>
       <c r="I53" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="J53" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K53" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="L53" t="s">
         <v>32</v>
@@ -6862,16 +6874,16 @@
         <v>32</v>
       </c>
       <c r="R53" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S53" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="T53" t="s">
         <v>32</v>
       </c>
       <c r="U53" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V53" t="s">
         <v>38</v>
@@ -6880,45 +6892,45 @@
         <v>32</v>
       </c>
       <c r="X53" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Y53" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:25">
       <c r="A54" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="B54" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C54" t="s">
         <v>27</v>
       </c>
       <c r="D54" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="E54" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F54" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G54" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H54" t="s">
         <v>32</v>
       </c>
       <c r="I54" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="J54" t="s">
         <v>48</v>
       </c>
       <c r="K54" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L54" t="s">
         <v>32</v>
@@ -6939,13 +6951,13 @@
         <v>32</v>
       </c>
       <c r="R54" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="S54" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="T54" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U54" t="s">
         <v>32</v>
@@ -6957,45 +6969,45 @@
         <v>32</v>
       </c>
       <c r="X54" t="s">
-        <v>294</v>
+        <v>405</v>
       </c>
       <c r="Y54" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="55" spans="1:25">
       <c r="A55" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B55" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C55" t="s">
         <v>27</v>
       </c>
       <c r="D55" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="E55" t="s">
         <v>71</v>
       </c>
       <c r="F55" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G55" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H55" t="s">
         <v>32</v>
       </c>
       <c r="I55" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J55" t="s">
         <v>58</v>
       </c>
       <c r="K55" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L55" t="s">
         <v>32</v>
@@ -7016,10 +7028,10 @@
         <v>32</v>
       </c>
       <c r="R55" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="S55" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="T55" t="s">
         <v>32</v>
@@ -7042,22 +7054,22 @@
     </row>
     <row r="56" spans="1:25">
       <c r="A56" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="B56" t="s">
         <v>26</v>
       </c>
       <c r="C56" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D56" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="E56" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="F56" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G56" t="s">
         <v>183</v>
@@ -7066,7 +7078,7 @@
         <v>32</v>
       </c>
       <c r="I56" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="J56" t="s">
         <v>48</v>
@@ -7093,7 +7105,7 @@
         <v>32</v>
       </c>
       <c r="R56" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="S56" t="s">
         <v>32</v>
@@ -7119,37 +7131,37 @@
     </row>
     <row r="57" spans="1:25">
       <c r="A57" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B57" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C57" t="s">
         <v>27</v>
       </c>
       <c r="D57" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="E57" t="s">
         <v>71</v>
       </c>
       <c r="F57" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G57" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H57" t="s">
         <v>32</v>
       </c>
       <c r="I57" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="J57" t="s">
         <v>48</v>
       </c>
       <c r="K57" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L57" t="s">
         <v>32</v>
@@ -7170,13 +7182,13 @@
         <v>32</v>
       </c>
       <c r="R57" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="S57" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="T57" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U57" t="s">
         <v>32</v>
@@ -7188,30 +7200,30 @@
         <v>32</v>
       </c>
       <c r="X57" t="s">
-        <v>294</v>
+        <v>405</v>
       </c>
       <c r="Y57" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="58" spans="1:25">
       <c r="A58" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B58" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C58" t="s">
         <v>27</v>
       </c>
       <c r="D58" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="E58" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="F58" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -7220,10 +7232,10 @@
         <v>32</v>
       </c>
       <c r="I58" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="J58" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="K58" t="s">
         <v>35</v>
@@ -7247,13 +7259,13 @@
         <v>32</v>
       </c>
       <c r="R58" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="S58" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="T58" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="U58" t="s">
         <v>32</v>
@@ -7265,30 +7277,30 @@
         <v>32</v>
       </c>
       <c r="X58" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Y58" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
     </row>
     <row r="59" spans="1:25">
       <c r="A59" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="B59" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C59" t="s">
         <v>27</v>
       </c>
       <c r="D59" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E59" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="F59" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -7297,10 +7309,10 @@
         <v>32</v>
       </c>
       <c r="I59" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="J59" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="K59" t="s">
         <v>35</v>
@@ -7324,13 +7336,13 @@
         <v>32</v>
       </c>
       <c r="R59" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="S59" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="T59" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U59" t="s">
         <v>32</v>
@@ -7350,7 +7362,7 @@
     </row>
     <row r="60" spans="1:25">
       <c r="A60" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B60" t="s">
         <v>26</v>
@@ -7359,10 +7371,10 @@
         <v>27</v>
       </c>
       <c r="D60" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="E60" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F60" t="s">
         <v>56</v>
@@ -7374,7 +7386,7 @@
         <v>32</v>
       </c>
       <c r="I60" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="J60" t="s">
         <v>48</v>
@@ -7395,13 +7407,13 @@
         <v>32</v>
       </c>
       <c r="P60" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="Q60" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="R60" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="S60" t="s">
         <v>32</v>
@@ -7427,25 +7439,25 @@
     </row>
     <row r="61" spans="1:25">
       <c r="A61" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="B61" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C61" t="s">
         <v>27</v>
       </c>
       <c r="D61" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="E61" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="F61" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G61" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H61" t="s">
         <v>32</v>
@@ -7472,13 +7484,13 @@
         <v>32</v>
       </c>
       <c r="P61" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="Q61" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="R61" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="S61" t="s">
         <v>32</v>
@@ -7504,7 +7516,7 @@
     </row>
     <row r="62" spans="1:25">
       <c r="A62" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B62" t="s">
         <v>26</v>
@@ -7513,13 +7525,13 @@
         <v>27</v>
       </c>
       <c r="D62" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="E62" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F62" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
@@ -7549,13 +7561,13 @@
         <v>32</v>
       </c>
       <c r="P62" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="Q62" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="R62" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="S62" t="s">
         <v>32</v>
@@ -7581,25 +7593,25 @@
     </row>
     <row r="63" spans="1:25">
       <c r="A63" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B63" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C63" t="s">
         <v>27</v>
       </c>
       <c r="D63" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="E63" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="F63" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="G63" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H63" t="s">
         <v>32</v>
@@ -7629,16 +7641,16 @@
         <v>32</v>
       </c>
       <c r="Q63" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="R63" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="S63" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="T63" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U63" t="s">
         <v>32</v>
@@ -7661,7 +7673,7 @@
         <v>177</v>
       </c>
       <c r="B64" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C64" t="s">
         <v>27</v>
@@ -7709,13 +7721,13 @@
         <v>169</v>
       </c>
       <c r="R64" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="S64" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="T64" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U64" t="s">
         <v>32</v>
@@ -7735,7 +7747,7 @@
     </row>
     <row r="65" spans="1:25">
       <c r="A65" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B65" t="s">
         <v>26</v>
@@ -7744,13 +7756,13 @@
         <v>27</v>
       </c>
       <c r="D65" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="E65" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F65" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G65" t="s">
         <v>32</v>
@@ -7759,7 +7771,7 @@
         <v>32</v>
       </c>
       <c r="I65" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="J65" t="s">
         <v>48</v>
@@ -7786,7 +7798,7 @@
         <v>32</v>
       </c>
       <c r="R65" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="S65" t="s">
         <v>32</v>
@@ -7804,15 +7816,15 @@
         <v>32</v>
       </c>
       <c r="X65" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="Y65" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:25">
       <c r="A66" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B66" t="s">
         <v>26</v>
@@ -7821,22 +7833,22 @@
         <v>27</v>
       </c>
       <c r="D66" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="E66" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="F66" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="G66" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H66" t="s">
         <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="J66" t="s">
         <v>48</v>
@@ -7860,10 +7872,10 @@
         <v>32</v>
       </c>
       <c r="Q66" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="R66" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="S66" t="s">
         <v>32</v>
@@ -7889,31 +7901,31 @@
     </row>
     <row r="67" spans="1:25">
       <c r="A67" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B67" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C67" t="s">
         <v>27</v>
       </c>
       <c r="D67" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E67" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F67" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G67" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H67" t="s">
         <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J67" t="s">
         <v>48</v>
@@ -7940,13 +7952,13 @@
         <v>32</v>
       </c>
       <c r="R67" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="S67" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="T67" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U67" t="s">
         <v>32</v>
@@ -7966,7 +7978,7 @@
     </row>
     <row r="68" spans="1:25">
       <c r="A68" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B68" t="s">
         <v>26</v>
@@ -7975,16 +7987,16 @@
         <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="E68" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="F68" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="G68" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H68" t="s">
         <v>32</v>
@@ -7993,7 +8005,7 @@
         <v>32</v>
       </c>
       <c r="J68" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="K68" t="s">
         <v>35</v>
@@ -8017,7 +8029,7 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="S68" t="s">
         <v>32</v>
@@ -8043,7 +8055,7 @@
     </row>
     <row r="69" spans="1:25">
       <c r="A69" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B69" t="s">
         <v>26</v>
@@ -8052,13 +8064,13 @@
         <v>27</v>
       </c>
       <c r="D69" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="E69" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="F69" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G69" t="s">
         <v>32</v>
@@ -8067,13 +8079,13 @@
         <v>32</v>
       </c>
       <c r="I69" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="J69" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="K69" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L69" t="s">
         <v>32</v>
@@ -8094,7 +8106,7 @@
         <v>32</v>
       </c>
       <c r="R69" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="S69" t="s">
         <v>32</v>
@@ -8120,22 +8132,22 @@
     </row>
     <row r="70" spans="1:25">
       <c r="A70" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B70" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C70" t="s">
         <v>27</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E70" t="s">
         <v>71</v>
       </c>
       <c r="F70" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -8144,10 +8156,10 @@
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="J70" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="K70" t="s">
         <v>35</v>
@@ -8171,16 +8183,16 @@
         <v>32</v>
       </c>
       <c r="R70" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="S70" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="T70" t="s">
         <v>32</v>
       </c>
       <c r="U70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V70" t="s">
         <v>38</v>
@@ -8189,15 +8201,15 @@
         <v>32</v>
       </c>
       <c r="X70" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="Y70" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
     </row>
     <row r="71" spans="1:25">
       <c r="A71" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B71" t="s">
         <v>26</v>
@@ -8206,13 +8218,13 @@
         <v>27</v>
       </c>
       <c r="D71" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E71" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F71" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G71" t="s">
         <v>32</v>
@@ -8221,7 +8233,7 @@
         <v>32</v>
       </c>
       <c r="I71" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="J71" t="s">
         <v>48</v>
@@ -8245,10 +8257,10 @@
         <v>32</v>
       </c>
       <c r="Q71" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="R71" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="S71" t="s">
         <v>32</v>
@@ -8274,31 +8286,31 @@
     </row>
     <row r="72" spans="1:25">
       <c r="A72" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="B72" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C72" t="s">
         <v>27</v>
       </c>
       <c r="D72" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E72" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="F72" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H72" t="s">
         <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J72" t="s">
         <v>48</v>
@@ -8319,19 +8331,19 @@
         <v>32</v>
       </c>
       <c r="P72" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="Q72" t="s">
         <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="S72" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="T72" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U72" t="s">
         <v>32</v>
@@ -8351,31 +8363,31 @@
     </row>
     <row r="73" spans="1:25">
       <c r="A73" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B73" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C73" t="s">
         <v>27</v>
       </c>
       <c r="D73" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E73" t="s">
         <v>29</v>
       </c>
       <c r="F73" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="G73" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H73" t="s">
         <v>32</v>
       </c>
       <c r="I73" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="J73" t="s">
         <v>48</v>
@@ -8402,10 +8414,10 @@
         <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="S73" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="T73" t="s">
         <v>32</v>
@@ -8420,24 +8432,24 @@
         <v>32</v>
       </c>
       <c r="X73" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="Y73" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
     </row>
     <row r="74" spans="1:25">
       <c r="A74" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="B74" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C74" t="s">
         <v>27</v>
       </c>
       <c r="D74" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E74" t="s">
         <v>29</v>
@@ -8446,16 +8458,16 @@
         <v>30</v>
       </c>
       <c r="G74" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H74" t="s">
         <v>32</v>
       </c>
       <c r="I74" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="J74" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K74" t="s">
         <v>35</v>
@@ -8476,13 +8488,13 @@
         <v>32</v>
       </c>
       <c r="Q74" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="R74" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="S74" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="T74" t="s">
         <v>32</v>
@@ -8497,15 +8509,15 @@
         <v>32</v>
       </c>
       <c r="X74" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="Y74" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
     </row>
     <row r="75" spans="1:25">
       <c r="A75" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B75" t="s">
         <v>26</v>
@@ -8514,16 +8526,16 @@
         <v>27</v>
       </c>
       <c r="D75" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E75" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F75" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="G75" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H75" t="s">
         <v>32</v>
@@ -8556,7 +8568,7 @@
         <v>32</v>
       </c>
       <c r="R75" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="S75" t="s">
         <v>32</v>
@@ -8582,31 +8594,31 @@
     </row>
     <row r="76" spans="1:25">
       <c r="A76" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B76" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C76" t="s">
         <v>27</v>
       </c>
       <c r="D76" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="E76" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F76" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G76" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H76" t="s">
         <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="J76" t="s">
         <v>48</v>
@@ -8633,16 +8645,16 @@
         <v>32</v>
       </c>
       <c r="R76" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S76" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="T76" t="s">
         <v>32</v>
       </c>
       <c r="U76" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V76" t="s">
         <v>38</v>
@@ -8651,39 +8663,39 @@
         <v>32</v>
       </c>
       <c r="X76" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Y76" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
     </row>
     <row r="77" spans="1:25">
       <c r="A77" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B77" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C77" t="s">
         <v>27</v>
       </c>
       <c r="D77" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="E77" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F77" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G77" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="H77" t="s">
         <v>32</v>
       </c>
       <c r="I77" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="J77" t="s">
         <v>48</v>
@@ -8704,16 +8716,16 @@
         <v>32</v>
       </c>
       <c r="P77" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="Q77" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="R77" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="S77" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="T77" t="s">
         <v>32</v>
@@ -8728,15 +8740,15 @@
         <v>32</v>
       </c>
       <c r="X77" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="Y77" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="78" spans="1:25">
       <c r="A78" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B78" t="s">
         <v>26</v>
@@ -8745,28 +8757,28 @@
         <v>27</v>
       </c>
       <c r="D78" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="E78" t="s">
         <v>71</v>
       </c>
       <c r="F78" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G78" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H78" t="s">
         <v>32</v>
       </c>
       <c r="I78" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="J78" t="s">
         <v>58</v>
       </c>
       <c r="K78" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="L78" t="s">
         <v>32</v>
@@ -8787,7 +8799,7 @@
         <v>32</v>
       </c>
       <c r="R78" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="S78" t="s">
         <v>32</v>
@@ -8813,22 +8825,22 @@
     </row>
     <row r="79" spans="1:25">
       <c r="A79" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="B79" t="s">
         <v>26</v>
       </c>
       <c r="C79" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D79" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="E79" t="s">
         <v>71</v>
       </c>
       <c r="F79" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
@@ -8864,7 +8876,7 @@
         <v>32</v>
       </c>
       <c r="R79" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="S79" t="s">
         <v>32</v>
@@ -8885,36 +8897,36 @@
         <v>37</v>
       </c>
       <c r="Y79" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
     </row>
     <row r="80" spans="1:25">
       <c r="A80" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B80" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C80" t="s">
         <v>27</v>
       </c>
       <c r="D80" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="E80" t="s">
         <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="G80" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H80" t="s">
         <v>32</v>
       </c>
       <c r="I80" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="J80" t="s">
         <v>48</v>
@@ -8935,16 +8947,16 @@
         <v>32</v>
       </c>
       <c r="P80" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="Q80" t="s">
         <v>32</v>
       </c>
       <c r="R80" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="S80" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="T80" t="s">
         <v>32</v>
@@ -8959,15 +8971,15 @@
         <v>32</v>
       </c>
       <c r="X80" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
       <c r="Y80" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
     </row>
     <row r="81" spans="1:25">
       <c r="A81" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B81" t="s">
         <v>26</v>
@@ -8976,13 +8988,13 @@
         <v>27</v>
       </c>
       <c r="D81" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="E81" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F81" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G81" t="s">
         <v>32</v>
@@ -8994,7 +9006,7 @@
         <v>32</v>
       </c>
       <c r="J81" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="K81" t="s">
         <v>35</v>
@@ -9018,7 +9030,7 @@
         <v>32</v>
       </c>
       <c r="R81" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="S81" t="s">
         <v>32</v>
@@ -9044,7 +9056,7 @@
     </row>
     <row r="82" spans="1:25">
       <c r="A82" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B82" t="s">
         <v>26</v>
@@ -9053,13 +9065,13 @@
         <v>27</v>
       </c>
       <c r="D82" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="E82" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="F82" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="G82" t="s">
         <v>73</v>
@@ -9068,7 +9080,7 @@
         <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="J82" t="s">
         <v>48</v>
@@ -9095,7 +9107,7 @@
         <v>32</v>
       </c>
       <c r="R82" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="S82" t="s">
         <v>32</v>
@@ -9121,7 +9133,7 @@
     </row>
     <row r="83" spans="1:25">
       <c r="A83" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B83" t="s">
         <v>26</v>
@@ -9130,22 +9142,22 @@
         <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E83" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F83" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G83" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H83" t="s">
         <v>32</v>
       </c>
       <c r="I83" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="J83" t="s">
         <v>48</v>
@@ -9169,10 +9181,10 @@
         <v>32</v>
       </c>
       <c r="Q83" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="R83" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="S83" t="s">
         <v>32</v>
@@ -9190,18 +9202,18 @@
         <v>32</v>
       </c>
       <c r="X83" t="s">
-        <v>51</v>
+        <v>211</v>
       </c>
       <c r="Y83" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
     </row>
     <row r="84" spans="1:25">
       <c r="A84" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B84" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C84" t="s">
         <v>27</v>
@@ -9216,7 +9228,7 @@
         <v>200</v>
       </c>
       <c r="G84" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H84" t="s">
         <v>32</v>
@@ -9249,13 +9261,13 @@
         <v>32</v>
       </c>
       <c r="R84" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="S84" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="T84" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U84" t="s">
         <v>32</v>
@@ -9267,15 +9279,15 @@
         <v>32</v>
       </c>
       <c r="X84" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="Y84" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="85" spans="1:25">
       <c r="A85" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="B85" t="s">
         <v>26</v>
@@ -9284,22 +9296,22 @@
         <v>27</v>
       </c>
       <c r="D85" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E85" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="F85" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G85" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="H85" t="s">
         <v>32</v>
       </c>
       <c r="I85" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="J85" t="s">
         <v>48</v>
@@ -9326,7 +9338,7 @@
         <v>32</v>
       </c>
       <c r="R85" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="S85" t="s">
         <v>32</v>
@@ -9352,37 +9364,37 @@
     </row>
     <row r="86" spans="1:25">
       <c r="A86" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B86" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C86" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="D86" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="E86" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="F86" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G86" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H86" t="s">
         <v>32</v>
       </c>
       <c r="I86" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="J86" t="s">
         <v>34</v>
       </c>
       <c r="K86" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="L86" t="s">
         <v>32</v>
@@ -9403,10 +9415,10 @@
         <v>32</v>
       </c>
       <c r="R86" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
       <c r="S86" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
       <c r="T86" t="s">
         <v>32</v>
@@ -9421,42 +9433,42 @@
         <v>32</v>
       </c>
       <c r="X86" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
       <c r="Y86" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="87" spans="1:25">
       <c r="A87" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
       <c r="B87" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C87" t="s">
         <v>27</v>
       </c>
       <c r="D87" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
       <c r="E87" t="s">
         <v>71</v>
       </c>
       <c r="F87" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G87" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H87" t="s">
         <v>32</v>
       </c>
       <c r="I87" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
       <c r="J87" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="K87" t="s">
         <v>35</v>
@@ -9480,13 +9492,13 @@
         <v>32</v>
       </c>
       <c r="R87" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
       <c r="S87" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
       <c r="T87" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="U87" t="s">
         <v>32</v>
@@ -9506,7 +9518,7 @@
     </row>
     <row r="88" spans="1:25">
       <c r="A88" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
       <c r="B88" t="s">
         <v>26</v>
@@ -9515,22 +9527,22 @@
         <v>27</v>
       </c>
       <c r="D88" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E88" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
       <c r="F88" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
       <c r="G88" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H88" t="s">
         <v>32</v>
       </c>
       <c r="I88" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
       <c r="J88" t="s">
         <v>48</v>
@@ -9557,7 +9569,7 @@
         <v>32</v>
       </c>
       <c r="R88" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
       <c r="S88" t="s">
         <v>32</v>
@@ -9583,22 +9595,22 @@
     </row>
     <row r="89" spans="1:25">
       <c r="A89" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
       <c r="B89" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C89" t="s">
         <v>27</v>
       </c>
       <c r="D89" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E89" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F89" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="G89" t="s">
         <v>32</v>
@@ -9634,13 +9646,13 @@
         <v>32</v>
       </c>
       <c r="R89" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
       <c r="S89" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
       <c r="T89" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="U89" t="s">
         <v>32</v>
@@ -9660,31 +9672,31 @@
     </row>
     <row r="90" spans="1:25">
       <c r="A90" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
       <c r="B90" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C90" t="s">
         <v>27</v>
       </c>
       <c r="D90" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
       <c r="E90" t="s">
         <v>71</v>
       </c>
       <c r="F90" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
       <c r="G90" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H90" t="s">
         <v>32</v>
       </c>
       <c r="I90" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
       <c r="J90" t="s">
         <v>48</v>
@@ -9711,13 +9723,13 @@
         <v>32</v>
       </c>
       <c r="R90" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
       <c r="S90" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
       <c r="T90" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U90" t="s">
         <v>32</v>
@@ -9729,33 +9741,33 @@
         <v>32</v>
       </c>
       <c r="X90" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="Y90" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="91" spans="1:25">
       <c r="A91" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
       <c r="B91" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C91" t="s">
         <v>27</v>
       </c>
       <c r="D91" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
       <c r="E91" t="s">
         <v>71</v>
       </c>
       <c r="F91" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G91" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H91" t="s">
         <v>32</v>
@@ -9788,13 +9800,13 @@
         <v>32</v>
       </c>
       <c r="R91" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
       <c r="S91" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
       <c r="T91" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U91" t="s">
         <v>32</v>
@@ -9806,15 +9818,15 @@
         <v>32</v>
       </c>
       <c r="X91" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="Y91" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="92" spans="1:25">
       <c r="A92" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
       <c r="B92" t="s">
         <v>26</v>
@@ -9823,22 +9835,22 @@
         <v>27</v>
       </c>
       <c r="D92" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="E92" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="F92" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="G92" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H92" t="s">
         <v>32</v>
       </c>
       <c r="I92" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="J92" t="s">
         <v>48</v>
@@ -9865,7 +9877,7 @@
         <v>32</v>
       </c>
       <c r="R92" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
       <c r="S92" t="s">
         <v>32</v>
@@ -9891,10 +9903,10 @@
     </row>
     <row r="93" spans="1:25">
       <c r="A93" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
       <c r="B93" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C93" t="s">
         <v>27</v>
@@ -9909,7 +9921,7 @@
         <v>56</v>
       </c>
       <c r="G93" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H93" t="s">
         <v>32</v>
@@ -9942,13 +9954,13 @@
         <v>32</v>
       </c>
       <c r="R93" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
       <c r="S93" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
       <c r="T93" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="U93" t="s">
         <v>32</v>
@@ -9960,42 +9972,42 @@
         <v>32</v>
       </c>
       <c r="X93" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="Y93" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="94" spans="1:25">
       <c r="A94" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="B94" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C94" t="s">
         <v>27</v>
       </c>
       <c r="D94" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
       <c r="E94" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
       <c r="F94" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
       <c r="G94" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H94" t="s">
         <v>32</v>
       </c>
       <c r="I94" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
       <c r="J94" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K94" t="s">
         <v>35</v>
@@ -10019,13 +10031,13 @@
         <v>32</v>
       </c>
       <c r="R94" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
       <c r="S94" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
       <c r="T94" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U94" t="s">
         <v>32</v>
@@ -10045,31 +10057,31 @@
     </row>
     <row r="95" spans="1:25">
       <c r="A95" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
       <c r="B95" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C95" t="s">
         <v>27</v>
       </c>
       <c r="D95" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="E95" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="F95" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="G95" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H95" t="s">
         <v>32</v>
       </c>
       <c r="I95" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="J95" t="s">
         <v>48</v>
@@ -10093,13 +10105,13 @@
         <v>32</v>
       </c>
       <c r="Q95" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
       <c r="R95" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="S95" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
       <c r="T95" t="s">
         <v>32</v>
@@ -10122,31 +10134,31 @@
     </row>
     <row r="96" spans="1:25">
       <c r="A96" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
       <c r="B96" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C96" t="s">
         <v>27</v>
       </c>
       <c r="D96" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E96" t="s">
         <v>71</v>
       </c>
       <c r="F96" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="G96" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="H96" t="s">
         <v>32</v>
       </c>
       <c r="I96" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="J96" t="s">
         <v>48</v>
@@ -10173,13 +10185,13 @@
         <v>32</v>
       </c>
       <c r="R96" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="S96" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
       <c r="T96" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="U96" t="s">
         <v>32</v>
@@ -10191,33 +10203,33 @@
         <v>32</v>
       </c>
       <c r="X96" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
       <c r="Y96" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="97" spans="1:25">
       <c r="A97" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
       <c r="B97" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C97" t="s">
         <v>27</v>
       </c>
       <c r="D97" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
       <c r="E97" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="F97" t="s">
         <v>56</v>
       </c>
       <c r="G97" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H97" t="s">
         <v>32</v>
@@ -10250,10 +10262,10 @@
         <v>32</v>
       </c>
       <c r="R97" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="S97" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
       <c r="T97" t="s">
         <v>32</v>
@@ -10276,7 +10288,7 @@
     </row>
     <row r="98" spans="1:25">
       <c r="A98" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
       <c r="B98" t="s">
         <v>26</v>
@@ -10285,13 +10297,13 @@
         <v>27</v>
       </c>
       <c r="D98" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
       <c r="E98" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F98" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G98" t="s">
         <v>32</v>
@@ -10300,7 +10312,7 @@
         <v>32</v>
       </c>
       <c r="I98" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
       <c r="J98" t="s">
         <v>48</v>
@@ -10327,7 +10339,7 @@
         <v>32</v>
       </c>
       <c r="R98" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="S98" t="s">
         <v>32</v>
@@ -10353,10 +10365,10 @@
     </row>
     <row r="99" spans="1:25">
       <c r="A99" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
       <c r="B99" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C99" t="s">
         <v>27</v>
@@ -10371,7 +10383,7 @@
         <v>56</v>
       </c>
       <c r="G99" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H99" t="s">
         <v>32</v>
@@ -10404,13 +10416,13 @@
         <v>32</v>
       </c>
       <c r="R99" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
       <c r="S99" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
       <c r="T99" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U99" t="s">
         <v>32</v>
@@ -10422,15 +10434,15 @@
         <v>32</v>
       </c>
       <c r="X99" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="Y99" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="1:25">
       <c r="A100" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
       <c r="B100" t="s">
         <v>26</v>
@@ -10439,28 +10451,28 @@
         <v>27</v>
       </c>
       <c r="D100" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E100" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="F100" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
       <c r="G100" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H100" t="s">
         <v>32</v>
       </c>
       <c r="I100" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
       <c r="J100" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="K100" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
       <c r="L100" t="s">
         <v>32</v>
@@ -10481,7 +10493,7 @@
         <v>32</v>
       </c>
       <c r="R100" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
       <c r="S100" t="s">
         <v>32</v>
@@ -10502,39 +10514,39 @@
         <v>37</v>
       </c>
       <c r="Y100" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="101" spans="1:25">
       <c r="A101" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
       <c r="B101" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C101" t="s">
         <v>27</v>
       </c>
       <c r="D101" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
       <c r="E101" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
       <c r="F101" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
       <c r="G101" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s">
         <v>32</v>
       </c>
       <c r="I101" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
       <c r="J101" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K101" t="s">
         <v>35</v>
@@ -10558,13 +10570,13 @@
         <v>32</v>
       </c>
       <c r="R101" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
       <c r="S101" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="T101" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U101" t="s">
         <v>32</v>
@@ -10576,33 +10588,33 @@
         <v>32</v>
       </c>
       <c r="X101" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="Y101" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="102" spans="1:25">
       <c r="A102" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
       <c r="B102" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C102" t="s">
         <v>27</v>
       </c>
       <c r="D102" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
       <c r="E102" t="s">
         <v>71</v>
       </c>
       <c r="F102" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
       <c r="G102" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s">
         <v>32</v>
@@ -10635,13 +10647,13 @@
         <v>32</v>
       </c>
       <c r="R102" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
       <c r="S102" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
       <c r="T102" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U102" t="s">
         <v>32</v>
@@ -10653,15 +10665,15 @@
         <v>32</v>
       </c>
       <c r="X102" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
       <c r="Y102" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="103" spans="1:25">
       <c r="A103" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="B103" t="s">
         <v>26</v>
@@ -10670,16 +10682,16 @@
         <v>27</v>
       </c>
       <c r="D103" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="E103" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
       <c r="F103" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G103" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="H103" t="s">
         <v>32</v>
@@ -10706,13 +10718,13 @@
         <v>32</v>
       </c>
       <c r="P103" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
       <c r="Q103" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="R103" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
       <c r="S103" t="s">
         <v>32</v>
@@ -10738,34 +10750,34 @@
     </row>
     <row r="104" spans="1:25">
       <c r="A104" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
       <c r="B104" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C104" t="s">
         <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="E104" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
       <c r="F104" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
       <c r="G104" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H104" t="s">
         <v>32</v>
       </c>
       <c r="I104" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="J104" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
       <c r="K104" t="s">
         <v>35</v>
@@ -10789,16 +10801,16 @@
         <v>32</v>
       </c>
       <c r="R104" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
       <c r="S104" t="s">
-        <v>695</v>
+        <v>699</v>
       </c>
       <c r="T104" t="s">
         <v>32</v>
       </c>
       <c r="U104" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V104" t="s">
         <v>38</v>
@@ -10807,15 +10819,15 @@
         <v>32</v>
       </c>
       <c r="X104" t="s">
-        <v>696</v>
+        <v>700</v>
       </c>
       <c r="Y104" t="s">
-        <v>697</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:25">
       <c r="A105" t="s">
-        <v>698</v>
+        <v>702</v>
       </c>
       <c r="B105" t="s">
         <v>26</v>
@@ -10824,13 +10836,13 @@
         <v>27</v>
       </c>
       <c r="D105" t="s">
-        <v>699</v>
+        <v>703</v>
       </c>
       <c r="E105" t="s">
-        <v>700</v>
+        <v>704</v>
       </c>
       <c r="F105" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G105" t="s">
         <v>183</v>
@@ -10839,7 +10851,7 @@
         <v>32</v>
       </c>
       <c r="I105" t="s">
-        <v>701</v>
+        <v>705</v>
       </c>
       <c r="J105" t="s">
         <v>48</v>
@@ -10848,7 +10860,7 @@
         <v>35</v>
       </c>
       <c r="L105" t="s">
-        <v>702</v>
+        <v>706</v>
       </c>
       <c r="M105" t="s">
         <v>32</v>
@@ -10860,13 +10872,13 @@
         <v>32</v>
       </c>
       <c r="P105" t="s">
-        <v>703</v>
+        <v>707</v>
       </c>
       <c r="Q105" t="s">
         <v>32</v>
       </c>
       <c r="R105" t="s">
-        <v>704</v>
+        <v>708</v>
       </c>
       <c r="S105" t="s">
         <v>32</v>
@@ -10892,31 +10904,31 @@
     </row>
     <row r="106" spans="1:25">
       <c r="A106" t="s">
-        <v>705</v>
+        <v>709</v>
       </c>
       <c r="B106" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C106" t="s">
         <v>27</v>
       </c>
       <c r="D106" t="s">
-        <v>706</v>
+        <v>710</v>
       </c>
       <c r="E106" t="s">
-        <v>707</v>
+        <v>711</v>
       </c>
       <c r="F106" t="s">
-        <v>708</v>
+        <v>712</v>
       </c>
       <c r="G106" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
       <c r="H106" t="s">
         <v>32</v>
       </c>
       <c r="I106" t="s">
-        <v>709</v>
+        <v>713</v>
       </c>
       <c r="J106" t="s">
         <v>48</v>
@@ -10943,13 +10955,13 @@
         <v>32</v>
       </c>
       <c r="R106" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="S106" t="s">
-        <v>710</v>
+        <v>714</v>
       </c>
       <c r="T106" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U106" t="s">
         <v>32</v>
@@ -10961,15 +10973,15 @@
         <v>32</v>
       </c>
       <c r="X106" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="Y106" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="107" spans="1:25">
       <c r="A107" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B107" t="s">
         <v>26</v>
@@ -10978,25 +10990,25 @@
         <v>27</v>
       </c>
       <c r="D107" t="s">
-        <v>712</v>
+        <v>716</v>
       </c>
       <c r="E107" t="s">
         <v>29</v>
       </c>
       <c r="F107" t="s">
-        <v>713</v>
+        <v>717</v>
       </c>
       <c r="G107" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H107" t="s">
         <v>32</v>
       </c>
       <c r="I107" t="s">
-        <v>714</v>
+        <v>718</v>
       </c>
       <c r="J107" t="s">
-        <v>715</v>
+        <v>719</v>
       </c>
       <c r="K107" t="s">
         <v>35</v>
@@ -11017,10 +11029,10 @@
         <v>32</v>
       </c>
       <c r="Q107" t="s">
-        <v>716</v>
+        <v>720</v>
       </c>
       <c r="R107" t="s">
-        <v>717</v>
+        <v>721</v>
       </c>
       <c r="S107" t="s">
         <v>32</v>
@@ -11046,7 +11058,7 @@
     </row>
     <row r="108" spans="1:25">
       <c r="A108" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="B108" t="s">
         <v>26</v>
@@ -11055,16 +11067,16 @@
         <v>27</v>
       </c>
       <c r="D108" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="E108" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="F108" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="G108" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="H108" t="s">
         <v>32</v>
@@ -11091,13 +11103,13 @@
         <v>32</v>
       </c>
       <c r="P108" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
       <c r="Q108" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="R108" t="s">
-        <v>719</v>
+        <v>723</v>
       </c>
       <c r="S108" t="s">
         <v>32</v>
@@ -11123,7 +11135,7 @@
     </row>
     <row r="109" spans="1:25">
       <c r="A109" t="s">
-        <v>720</v>
+        <v>724</v>
       </c>
       <c r="B109" t="s">
         <v>26</v>
@@ -11132,22 +11144,22 @@
         <v>27</v>
       </c>
       <c r="D109" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="E109" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F109" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G109" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H109" t="s">
         <v>32</v>
       </c>
       <c r="I109" t="s">
-        <v>722</v>
+        <v>726</v>
       </c>
       <c r="J109" t="s">
         <v>48</v>
@@ -11168,13 +11180,13 @@
         <v>32</v>
       </c>
       <c r="P109" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="Q109" t="s">
         <v>32</v>
       </c>
       <c r="R109" t="s">
-        <v>724</v>
+        <v>728</v>
       </c>
       <c r="S109" t="s">
         <v>32</v>
@@ -11200,7 +11212,7 @@
     </row>
     <row r="110" spans="1:25">
       <c r="A110" t="s">
-        <v>725</v>
+        <v>729</v>
       </c>
       <c r="B110" t="s">
         <v>26</v>
@@ -11209,25 +11221,25 @@
         <v>27</v>
       </c>
       <c r="D110" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E110" t="s">
-        <v>726</v>
+        <v>730</v>
       </c>
       <c r="F110" t="s">
-        <v>727</v>
+        <v>731</v>
       </c>
       <c r="G110" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H110" t="s">
         <v>32</v>
       </c>
       <c r="I110" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="J110" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="K110" t="s">
         <v>35</v>
@@ -11248,10 +11260,10 @@
         <v>32</v>
       </c>
       <c r="Q110" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="R110" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="S110" t="s">
         <v>32</v>
@@ -11269,33 +11281,33 @@
         <v>32</v>
       </c>
       <c r="X110" t="s">
-        <v>37</v>
+        <v>211</v>
       </c>
       <c r="Y110" t="s">
-        <v>530</v>
+        <v>734</v>
       </c>
     </row>
     <row r="111" spans="1:25">
       <c r="A111" t="s">
-        <v>730</v>
+        <v>735</v>
       </c>
       <c r="B111" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C111" t="s">
         <v>27</v>
       </c>
       <c r="D111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E111" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="F111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G111" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H111" t="s">
         <v>32</v>
@@ -11328,13 +11340,13 @@
         <v>32</v>
       </c>
       <c r="R111" t="s">
-        <v>731</v>
+        <v>736</v>
       </c>
       <c r="S111" t="s">
-        <v>732</v>
+        <v>737</v>
       </c>
       <c r="T111" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U111" t="s">
         <v>32</v>
@@ -11346,15 +11358,15 @@
         <v>32</v>
       </c>
       <c r="X111" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="Y111" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="112" spans="1:25">
       <c r="A112" t="s">
-        <v>735</v>
+        <v>740</v>
       </c>
       <c r="B112" t="s">
         <v>26</v>
@@ -11363,28 +11375,28 @@
         <v>27</v>
       </c>
       <c r="D112" t="s">
-        <v>736</v>
+        <v>741</v>
       </c>
       <c r="E112" t="s">
-        <v>737</v>
+        <v>742</v>
       </c>
       <c r="F112" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G112" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="H112" t="s">
         <v>32</v>
       </c>
       <c r="I112" t="s">
-        <v>738</v>
+        <v>743</v>
       </c>
       <c r="J112" t="s">
-        <v>739</v>
+        <v>744</v>
       </c>
       <c r="K112" t="s">
-        <v>740</v>
+        <v>745</v>
       </c>
       <c r="L112" t="s">
         <v>32</v>
@@ -11405,7 +11417,7 @@
         <v>32</v>
       </c>
       <c r="R112" t="s">
-        <v>741</v>
+        <v>746</v>
       </c>
       <c r="S112" t="s">
         <v>32</v>
@@ -11426,39 +11438,39 @@
         <v>37</v>
       </c>
       <c r="Y112" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
     </row>
     <row r="113" spans="1:25">
       <c r="A113" t="s">
-        <v>742</v>
+        <v>747</v>
       </c>
       <c r="B113" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C113" t="s">
         <v>27</v>
       </c>
       <c r="D113" t="s">
-        <v>743</v>
+        <v>748</v>
       </c>
       <c r="E113" t="s">
         <v>29</v>
       </c>
       <c r="F113" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G113" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H113" t="s">
         <v>32</v>
       </c>
       <c r="I113" t="s">
-        <v>744</v>
+        <v>749</v>
       </c>
       <c r="J113" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K113" t="s">
         <v>35</v>
@@ -11482,13 +11494,13 @@
         <v>32</v>
       </c>
       <c r="R113" t="s">
-        <v>745</v>
+        <v>750</v>
       </c>
       <c r="S113" t="s">
-        <v>746</v>
+        <v>751</v>
       </c>
       <c r="T113" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U113" t="s">
         <v>32</v>
@@ -11500,39 +11512,39 @@
         <v>32</v>
       </c>
       <c r="X113" t="s">
-        <v>747</v>
+        <v>752</v>
       </c>
       <c r="Y113" t="s">
-        <v>748</v>
+        <v>753</v>
       </c>
     </row>
     <row r="114" spans="1:25">
       <c r="A114" t="s">
-        <v>749</v>
+        <v>754</v>
       </c>
       <c r="B114" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C114" t="s">
         <v>27</v>
       </c>
       <c r="D114" t="s">
-        <v>750</v>
+        <v>755</v>
       </c>
       <c r="E114" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="F114" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="G114" t="s">
-        <v>751</v>
+        <v>756</v>
       </c>
       <c r="H114" t="s">
         <v>32</v>
       </c>
       <c r="I114" t="s">
-        <v>752</v>
+        <v>757</v>
       </c>
       <c r="J114" t="s">
         <v>48</v>
@@ -11559,13 +11571,13 @@
         <v>32</v>
       </c>
       <c r="R114" t="s">
-        <v>753</v>
+        <v>758</v>
       </c>
       <c r="S114" t="s">
-        <v>754</v>
+        <v>759</v>
       </c>
       <c r="T114" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U114" t="s">
         <v>32</v>
@@ -11577,39 +11589,39 @@
         <v>32</v>
       </c>
       <c r="X114" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="Y114" t="s">
-        <v>711</v>
+        <v>715</v>
       </c>
     </row>
     <row r="115" spans="1:25">
       <c r="A115" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B115" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C115" t="s">
         <v>27</v>
       </c>
       <c r="D115" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="E115" t="s">
-        <v>755</v>
+        <v>760</v>
       </c>
       <c r="F115" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="G115" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H115" t="s">
         <v>32</v>
       </c>
       <c r="I115" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="J115" t="s">
         <v>48</v>
@@ -11633,16 +11645,16 @@
         <v>32</v>
       </c>
       <c r="Q115" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="R115" t="s">
-        <v>756</v>
+        <v>761</v>
       </c>
       <c r="S115" t="s">
-        <v>757</v>
+        <v>762</v>
       </c>
       <c r="T115" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U115" t="s">
         <v>32</v>
@@ -11654,33 +11666,33 @@
         <v>32</v>
       </c>
       <c r="X115" t="s">
-        <v>294</v>
+        <v>405</v>
       </c>
       <c r="Y115" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
     </row>
     <row r="116" spans="1:25">
       <c r="A116" t="s">
-        <v>723</v>
+        <v>727</v>
       </c>
       <c r="B116" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C116" t="s">
         <v>27</v>
       </c>
       <c r="D116" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="E116" t="s">
-        <v>721</v>
+        <v>725</v>
       </c>
       <c r="F116" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G116" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H116" t="s">
         <v>32</v>
@@ -11713,13 +11725,13 @@
         <v>32</v>
       </c>
       <c r="R116" t="s">
-        <v>758</v>
+        <v>763</v>
       </c>
       <c r="S116" t="s">
-        <v>759</v>
+        <v>764</v>
       </c>
       <c r="T116" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U116" t="s">
         <v>32</v>
@@ -11739,31 +11751,31 @@
     </row>
     <row r="117" spans="1:25">
       <c r="A117" t="s">
-        <v>760</v>
+        <v>765</v>
       </c>
       <c r="B117" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C117" t="s">
         <v>27</v>
       </c>
       <c r="D117" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="E117" t="s">
         <v>71</v>
       </c>
       <c r="F117" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="G117" t="s">
-        <v>761</v>
+        <v>766</v>
       </c>
       <c r="H117" t="s">
         <v>32</v>
       </c>
       <c r="I117" t="s">
-        <v>762</v>
+        <v>767</v>
       </c>
       <c r="J117" t="s">
         <v>48</v>
@@ -11790,13 +11802,13 @@
         <v>32</v>
       </c>
       <c r="R117" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="S117" t="s">
-        <v>763</v>
+        <v>768</v>
       </c>
       <c r="T117" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U117" t="s">
         <v>32</v>
@@ -11808,30 +11820,30 @@
         <v>32</v>
       </c>
       <c r="X117" t="s">
-        <v>764</v>
+        <v>769</v>
       </c>
       <c r="Y117" t="s">
-        <v>765</v>
+        <v>770</v>
       </c>
     </row>
     <row r="118" spans="1:25">
       <c r="A118" t="s">
-        <v>766</v>
+        <v>771</v>
       </c>
       <c r="B118" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C118" t="s">
         <v>27</v>
       </c>
       <c r="D118" t="s">
-        <v>767</v>
+        <v>772</v>
       </c>
       <c r="E118" t="s">
-        <v>768</v>
+        <v>773</v>
       </c>
       <c r="F118" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="G118" t="s">
         <v>46</v>
@@ -11867,13 +11879,13 @@
         <v>32</v>
       </c>
       <c r="R118" t="s">
-        <v>769</v>
+        <v>774</v>
       </c>
       <c r="S118" t="s">
-        <v>770</v>
+        <v>775</v>
       </c>
       <c r="T118" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U118" t="s">
         <v>32</v>
@@ -11893,22 +11905,22 @@
     </row>
     <row r="119" spans="1:25">
       <c r="A119" t="s">
-        <v>771</v>
+        <v>776</v>
       </c>
       <c r="B119" t="s">
         <v>26</v>
       </c>
       <c r="C119" t="s">
-        <v>772</v>
+        <v>777</v>
       </c>
       <c r="D119" t="s">
-        <v>773</v>
+        <v>778</v>
       </c>
       <c r="E119" t="s">
-        <v>774</v>
+        <v>779</v>
       </c>
       <c r="F119" t="s">
-        <v>775</v>
+        <v>780</v>
       </c>
       <c r="G119" t="s">
         <v>46</v>
@@ -11920,7 +11932,7 @@
         <v>32</v>
       </c>
       <c r="J119" t="s">
-        <v>776</v>
+        <v>781</v>
       </c>
       <c r="K119" t="s">
         <v>35</v>
@@ -11938,13 +11950,13 @@
         <v>32</v>
       </c>
       <c r="P119" t="s">
-        <v>777</v>
+        <v>782</v>
       </c>
       <c r="Q119" t="s">
-        <v>778</v>
+        <v>783</v>
       </c>
       <c r="R119" t="s">
-        <v>779</v>
+        <v>784</v>
       </c>
       <c r="S119" t="s">
         <v>32</v>
@@ -11970,31 +11982,31 @@
     </row>
     <row r="120" spans="1:25">
       <c r="A120" t="s">
-        <v>780</v>
+        <v>785</v>
       </c>
       <c r="B120" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C120" t="s">
         <v>27</v>
       </c>
       <c r="D120" t="s">
-        <v>781</v>
+        <v>786</v>
       </c>
       <c r="E120" t="s">
         <v>206</v>
       </c>
       <c r="F120" t="s">
-        <v>782</v>
+        <v>787</v>
       </c>
       <c r="G120" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="H120" t="s">
         <v>32</v>
       </c>
       <c r="I120" t="s">
-        <v>784</v>
+        <v>789</v>
       </c>
       <c r="J120" t="s">
         <v>58</v>
@@ -12021,13 +12033,13 @@
         <v>32</v>
       </c>
       <c r="R120" t="s">
-        <v>785</v>
+        <v>790</v>
       </c>
       <c r="S120" t="s">
-        <v>786</v>
+        <v>791</v>
       </c>
       <c r="T120" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U120" t="s">
         <v>32</v>
@@ -12039,18 +12051,18 @@
         <v>32</v>
       </c>
       <c r="X120" t="s">
-        <v>733</v>
+        <v>738</v>
       </c>
       <c r="Y120" t="s">
-        <v>734</v>
+        <v>739</v>
       </c>
     </row>
     <row r="121" spans="1:25">
       <c r="A121" t="s">
-        <v>787</v>
+        <v>792</v>
       </c>
       <c r="B121" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C121" t="s">
         <v>27</v>
@@ -12065,13 +12077,13 @@
         <v>207</v>
       </c>
       <c r="G121" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H121" t="s">
         <v>32</v>
       </c>
       <c r="I121" t="s">
-        <v>788</v>
+        <v>793</v>
       </c>
       <c r="J121" t="s">
         <v>48</v>
@@ -12098,16 +12110,16 @@
         <v>32</v>
       </c>
       <c r="R121" t="s">
-        <v>789</v>
+        <v>794</v>
       </c>
       <c r="S121" t="s">
-        <v>790</v>
+        <v>795</v>
       </c>
       <c r="T121" t="s">
         <v>32</v>
       </c>
       <c r="U121" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V121" t="s">
         <v>38</v>
@@ -12119,12 +12131,12 @@
         <v>37</v>
       </c>
       <c r="Y121" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
     </row>
     <row r="122" spans="1:25">
       <c r="A122" t="s">
-        <v>791</v>
+        <v>796</v>
       </c>
       <c r="B122" t="s">
         <v>26</v>
@@ -12133,16 +12145,16 @@
         <v>27</v>
       </c>
       <c r="D122" t="s">
-        <v>792</v>
+        <v>797</v>
       </c>
       <c r="E122" t="s">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="F122" t="s">
         <v>56</v>
       </c>
       <c r="G122" t="s">
-        <v>794</v>
+        <v>799</v>
       </c>
       <c r="H122" t="s">
         <v>32</v>
@@ -12151,10 +12163,10 @@
         <v>32</v>
       </c>
       <c r="J122" t="s">
-        <v>795</v>
+        <v>287</v>
       </c>
       <c r="K122" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L122" t="s">
         <v>32</v>
@@ -12175,7 +12187,7 @@
         <v>32</v>
       </c>
       <c r="R122" t="s">
-        <v>796</v>
+        <v>800</v>
       </c>
       <c r="S122" t="s">
         <v>32</v>
@@ -12184,7 +12196,7 @@
         <v>32</v>
       </c>
       <c r="U122" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="V122" t="s">
         <v>38</v>
@@ -12201,31 +12213,31 @@
     </row>
     <row r="123" spans="1:25">
       <c r="A123" t="s">
-        <v>797</v>
+        <v>801</v>
       </c>
       <c r="B123" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C123" t="s">
         <v>27</v>
       </c>
       <c r="D123" t="s">
-        <v>798</v>
+        <v>802</v>
       </c>
       <c r="E123" t="s">
-        <v>799</v>
+        <v>803</v>
       </c>
       <c r="F123" t="s">
-        <v>800</v>
+        <v>804</v>
       </c>
       <c r="G123" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="H123" t="s">
         <v>32</v>
       </c>
       <c r="I123" t="s">
-        <v>801</v>
+        <v>805</v>
       </c>
       <c r="J123" t="s">
         <v>48</v>
@@ -12252,7 +12264,7 @@
         <v>32</v>
       </c>
       <c r="R123" t="s">
-        <v>802</v>
+        <v>806</v>
       </c>
       <c r="S123" t="s">
         <v>32</v>
@@ -12278,7 +12290,7 @@
     </row>
     <row r="124" spans="1:25">
       <c r="A124" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B124" t="s">
         <v>26</v>
@@ -12287,13 +12299,13 @@
         <v>27</v>
       </c>
       <c r="D124" t="s">
-        <v>803</v>
+        <v>807</v>
       </c>
       <c r="E124" t="s">
-        <v>804</v>
+        <v>808</v>
       </c>
       <c r="F124" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G124" t="s">
         <v>183</v>
@@ -12302,16 +12314,16 @@
         <v>32</v>
       </c>
       <c r="I124" t="s">
-        <v>805</v>
+        <v>809</v>
       </c>
       <c r="J124" t="s">
-        <v>806</v>
+        <v>810</v>
       </c>
       <c r="K124" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L124" t="s">
-        <v>807</v>
+        <v>811</v>
       </c>
       <c r="M124" t="s">
         <v>32</v>
@@ -12326,10 +12338,10 @@
         <v>32</v>
       </c>
       <c r="Q124" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="R124" t="s">
-        <v>808</v>
+        <v>812</v>
       </c>
       <c r="S124" t="s">
         <v>32</v>
@@ -12350,30 +12362,30 @@
         <v>37</v>
       </c>
       <c r="Y124" t="s">
-        <v>809</v>
+        <v>813</v>
       </c>
     </row>
     <row r="125" spans="1:25">
       <c r="A125" t="s">
-        <v>810</v>
+        <v>814</v>
       </c>
       <c r="B125" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C125" t="s">
         <v>27</v>
       </c>
       <c r="D125" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="E125" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="F125" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="G125" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
       <c r="H125" t="s">
         <v>32</v>
@@ -12406,13 +12418,13 @@
         <v>32</v>
       </c>
       <c r="R125" t="s">
-        <v>811</v>
+        <v>815</v>
       </c>
       <c r="S125" t="s">
-        <v>812</v>
+        <v>816</v>
       </c>
       <c r="T125" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U125" t="s">
         <v>32</v>
@@ -12424,33 +12436,33 @@
         <v>32</v>
       </c>
       <c r="X125" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
       <c r="Y125" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="126" spans="1:25">
       <c r="A126" t="s">
-        <v>813</v>
+        <v>817</v>
       </c>
       <c r="B126" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C126" t="s">
         <v>27</v>
       </c>
       <c r="D126" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E126" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="F126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="G126" t="s">
-        <v>783</v>
+        <v>788</v>
       </c>
       <c r="H126" t="s">
         <v>32</v>
@@ -12483,13 +12495,13 @@
         <v>32</v>
       </c>
       <c r="R126" t="s">
-        <v>814</v>
+        <v>818</v>
       </c>
       <c r="S126" t="s">
-        <v>815</v>
+        <v>819</v>
       </c>
       <c r="T126" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="U126" t="s">
         <v>32</v>
@@ -12501,10 +12513,10 @@
         <v>32</v>
       </c>
       <c r="X126" t="s">
-        <v>816</v>
+        <v>820</v>
       </c>
       <c r="Y126" t="s">
-        <v>817</v>
+        <v>821</v>
       </c>
     </row>
   </sheetData>
